--- a/TeamReport.xlsx
+++ b/TeamReport.xlsx
@@ -5,12 +5,12 @@
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michaelwen/Documents/555/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michaelwen/Documents/555/homework/CS-SSW-555-Group-Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34FE799B-C0CC-AB42-8017-7785DD25C9A9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8926A7C-F359-1448-BB26-C97F1AD3378E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16800" yWindow="460" windowWidth="16800" windowHeight="19080" tabRatio="500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="253">
   <si>
     <t>Date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1030,11 +1030,11 @@
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="66">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -2346,8 +2346,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:E21"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="150" workbookViewId="0">
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -2560,7 +2560,7 @@
         <v>196</v>
       </c>
       <c r="E12" s="18" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="14">
@@ -2577,7 +2577,7 @@
         <v>196</v>
       </c>
       <c r="E13" s="18" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="14">
@@ -2594,7 +2594,7 @@
         <v>195</v>
       </c>
       <c r="E14" s="18" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="14">
@@ -2611,7 +2611,7 @@
         <v>195</v>
       </c>
       <c r="E15" s="18" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="14">
@@ -2628,7 +2628,7 @@
         <v>210</v>
       </c>
       <c r="E16" s="18" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="14">
@@ -2645,7 +2645,7 @@
         <v>210</v>
       </c>
       <c r="E17" s="18" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="14">
@@ -2662,7 +2662,7 @@
         <v>194</v>
       </c>
       <c r="E18" s="18" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="14">
@@ -2679,7 +2679,7 @@
         <v>194</v>
       </c>
       <c r="E19" s="18" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="14">
@@ -2696,7 +2696,7 @@
         <v>193</v>
       </c>
       <c r="E20" s="18" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="14">
@@ -2713,7 +2713,7 @@
         <v>193</v>
       </c>
       <c r="E21" s="18" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -2853,10 +2853,10 @@
         <v>4</v>
       </c>
       <c r="B34" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C34" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -2864,10 +2864,10 @@
         <v>4</v>
       </c>
       <c r="B35" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C35" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -2875,10 +2875,10 @@
         <v>4</v>
       </c>
       <c r="B36" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C36" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -2886,10 +2886,10 @@
         <v>4</v>
       </c>
       <c r="B37" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C37" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -2897,10 +2897,10 @@
         <v>4</v>
       </c>
       <c r="B38" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C38" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -2908,10 +2908,10 @@
         <v>4</v>
       </c>
       <c r="B39" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C39" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -2919,10 +2919,10 @@
         <v>4</v>
       </c>
       <c r="B40" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C40" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -2930,10 +2930,10 @@
         <v>4</v>
       </c>
       <c r="B41" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C41" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -3146,7 +3146,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="150" workbookViewId="0">
+    <sheetView zoomScale="150" workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
@@ -3246,7 +3246,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:Q23"/>
   <sheetViews>
-    <sheetView topLeftCell="C5" zoomScale="150" workbookViewId="0">
+    <sheetView zoomScale="150" workbookViewId="0">
       <selection activeCell="D16" sqref="D16:K18"/>
     </sheetView>
   </sheetViews>
@@ -3825,39 +3825,39 @@
       <c r="D16" s="23" t="s">
         <v>252</v>
       </c>
-      <c r="E16" s="22"/>
-      <c r="F16" s="22"/>
-      <c r="G16" s="22"/>
-      <c r="H16" s="22"/>
-      <c r="I16" s="22"/>
-      <c r="J16" s="22"/>
-      <c r="K16" s="22"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="24"/>
+      <c r="H16" s="24"/>
+      <c r="I16" s="24"/>
+      <c r="J16" s="24"/>
+      <c r="K16" s="24"/>
     </row>
     <row r="17" spans="2:11" ht="28">
       <c r="B17" s="21" t="s">
         <v>247</v>
       </c>
-      <c r="D17" s="22"/>
-      <c r="E17" s="22"/>
-      <c r="F17" s="22"/>
-      <c r="G17" s="22"/>
-      <c r="H17" s="22"/>
-      <c r="I17" s="22"/>
-      <c r="J17" s="22"/>
-      <c r="K17" s="22"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="24"/>
+      <c r="H17" s="24"/>
+      <c r="I17" s="24"/>
+      <c r="J17" s="24"/>
+      <c r="K17" s="24"/>
     </row>
     <row r="18" spans="2:11" ht="14">
       <c r="B18" s="21" t="s">
         <v>248</v>
       </c>
-      <c r="D18" s="22"/>
-      <c r="E18" s="22"/>
-      <c r="F18" s="22"/>
-      <c r="G18" s="22"/>
-      <c r="H18" s="22"/>
-      <c r="I18" s="22"/>
-      <c r="J18" s="22"/>
-      <c r="K18" s="22"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="24"/>
+      <c r="H18" s="24"/>
+      <c r="I18" s="24"/>
+      <c r="J18" s="24"/>
+      <c r="K18" s="24"/>
     </row>
     <row r="20" spans="2:11" ht="14">
       <c r="B20" s="5" t="s">
@@ -3893,8 +3893,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView zoomScale="150" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -3987,6 +3987,15 @@
       <c r="F4" s="18">
         <v>60</v>
       </c>
+      <c r="G4">
+        <v>50</v>
+      </c>
+      <c r="H4" s="18">
+        <v>120</v>
+      </c>
+      <c r="I4" s="20" t="s">
+        <v>212</v>
+      </c>
     </row>
     <row r="5" spans="1:9" ht="14">
       <c r="A5" s="18" t="s">
@@ -4007,6 +4016,15 @@
       <c r="F5" s="18">
         <v>60</v>
       </c>
+      <c r="G5">
+        <v>50</v>
+      </c>
+      <c r="H5" s="18">
+        <v>60</v>
+      </c>
+      <c r="I5" s="20" t="s">
+        <v>212</v>
+      </c>
     </row>
     <row r="6" spans="1:9" ht="14">
       <c r="A6" s="18" t="s">
@@ -4067,6 +4085,15 @@
       <c r="F8" s="18">
         <v>40</v>
       </c>
+      <c r="G8">
+        <v>17</v>
+      </c>
+      <c r="H8" s="18">
+        <v>120</v>
+      </c>
+      <c r="I8" s="20" t="s">
+        <v>212</v>
+      </c>
     </row>
     <row r="9" spans="1:9" ht="14">
       <c r="A9" s="18" t="s">
@@ -4087,12 +4114,21 @@
       <c r="F9" s="18">
         <v>40</v>
       </c>
+      <c r="G9">
+        <v>16</v>
+      </c>
+      <c r="H9" s="18">
+        <v>150</v>
+      </c>
+      <c r="I9" s="20" t="s">
+        <v>212</v>
+      </c>
     </row>
     <row r="10" spans="1:9" ht="14">
       <c r="A10" s="18" t="s">
         <v>130</v>
       </c>
-      <c r="B10" s="24" t="s">
+      <c r="B10" s="22" t="s">
         <v>84</v>
       </c>
       <c r="C10" s="18" t="s">
@@ -4229,8 +4265,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:C43"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView topLeftCell="A37" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="A42" sqref="A42:B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>

--- a/TeamReport.xlsx
+++ b/TeamReport.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michaelwen/Documents/555/homework/CS-SSW-555-Group-Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8926A7C-F359-1448-BB26-C97F1AD3378E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{943C21D3-B846-CB4E-B27C-A583AB550518}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="253">
   <si>
     <t>Date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1312,6 +1312,9 @@
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2201,7 +2204,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -2346,8 +2349,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="150" workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
+    <sheetView topLeftCell="A8" zoomScale="150" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -2716,7 +2719,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" ht="14">
       <c r="A22">
         <v>3</v>
       </c>
@@ -2726,8 +2729,14 @@
       <c r="C22" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="23" spans="1:5">
+      <c r="D22" s="20" t="s">
+        <v>194</v>
+      </c>
+      <c r="E22" s="18" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="14">
       <c r="A23">
         <v>3</v>
       </c>
@@ -2737,8 +2746,14 @@
       <c r="C23" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="24" spans="1:5">
+      <c r="D23" s="20" t="s">
+        <v>210</v>
+      </c>
+      <c r="E23" s="18" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="14">
       <c r="A24">
         <v>3</v>
       </c>
@@ -2748,8 +2763,14 @@
       <c r="C24" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="25" spans="1:5">
+      <c r="D24" s="20" t="s">
+        <v>210</v>
+      </c>
+      <c r="E24" s="18" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="14">
       <c r="A25">
         <v>3</v>
       </c>
@@ -2759,8 +2780,14 @@
       <c r="C25" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="26" spans="1:5">
+      <c r="D25" s="20" t="s">
+        <v>195</v>
+      </c>
+      <c r="E25" s="18" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="14">
       <c r="A26">
         <v>3</v>
       </c>
@@ -2770,8 +2797,14 @@
       <c r="C26" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="27" spans="1:5">
+      <c r="D26" s="20" t="s">
+        <v>196</v>
+      </c>
+      <c r="E26" s="18" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="14">
       <c r="A27">
         <v>3</v>
       </c>
@@ -2781,8 +2814,14 @@
       <c r="C27" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="D27" s="20" t="s">
+        <v>195</v>
+      </c>
+      <c r="E27" s="18" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="14">
       <c r="A28">
         <v>3</v>
       </c>
@@ -2792,8 +2831,14 @@
       <c r="C28" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="29" spans="1:5">
+      <c r="D28" s="20" t="s">
+        <v>194</v>
+      </c>
+      <c r="E28" s="18" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="14">
       <c r="A29">
         <v>3</v>
       </c>
@@ -2803,8 +2848,14 @@
       <c r="C29" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="30" spans="1:5">
+      <c r="D29" s="20" t="s">
+        <v>196</v>
+      </c>
+      <c r="E29" s="18" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="14">
       <c r="A30">
         <v>3</v>
       </c>
@@ -2814,8 +2865,14 @@
       <c r="C30" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="31" spans="1:5">
+      <c r="D30" s="20" t="s">
+        <v>193</v>
+      </c>
+      <c r="E30" s="18" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="14">
       <c r="A31">
         <v>3</v>
       </c>
@@ -2824,6 +2881,12 @@
       </c>
       <c r="C31" t="s">
         <v>97</v>
+      </c>
+      <c r="D31" s="20" t="s">
+        <v>193</v>
+      </c>
+      <c r="E31" s="18" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -2948,7 +3011,7 @@
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView topLeftCell="A15" zoomScale="150" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -3053,11 +3116,11 @@
         <v>919</v>
       </c>
       <c r="F16" s="13">
-        <v>215</v>
+        <v>615</v>
       </c>
       <c r="G16" s="9">
         <f>(E16-E15)/F16*60</f>
-        <v>80.093023255813961</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -3075,14 +3138,14 @@
         <v>10</v>
       </c>
       <c r="E17" s="13">
-        <v>0</v>
+        <v>1262</v>
       </c>
       <c r="F17" s="14">
-        <v>0</v>
-      </c>
-      <c r="G17" s="9" t="e">
+        <v>1665</v>
+      </c>
+      <c r="G17" s="9">
         <f>(E17-E16)/F17*60</f>
-        <v>#DIV/0!</v>
+        <v>12.36036036036036</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -3147,7 +3210,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -3157,7 +3220,7 @@
     <col min="3" max="3" width="12.5" customWidth="1"/>
     <col min="4" max="4" width="7.1640625" customWidth="1"/>
     <col min="5" max="5" width="6.83203125" customWidth="1"/>
-    <col min="6" max="6" width="12.5" style="9" customWidth="1"/>
+    <col min="6" max="6" width="20.33203125" style="9" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="4" customFormat="1">
@@ -3212,26 +3275,50 @@
         <v>919</v>
       </c>
       <c r="E3">
-        <v>215</v>
+        <v>615</v>
       </c>
       <c r="F3" s="9">
         <f>(D3-D2)/E3*60</f>
-        <v>80.093023255813961</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="19">
         <v>42292</v>
       </c>
+      <c r="B4">
+        <v>20</v>
+      </c>
+      <c r="C4">
+        <v>20</v>
+      </c>
+      <c r="D4">
+        <v>1262</v>
+      </c>
+      <c r="E4">
+        <v>1665</v>
+      </c>
+      <c r="F4" s="9">
+        <f>(D4-D3)/E4*60</f>
+        <v>12.36036036036036</v>
+      </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="19">
         <v>42306</v>
       </c>
+      <c r="F5" s="9" t="e">
+        <f>(D5-D4)/E5*60</f>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="19">
         <v>42320</v>
+      </c>
+      <c r="F6" s="9" t="e">
+        <f t="shared" ref="F5:F6" si="0">(D6-D5)/E6*60</f>
+        <v>#DIV/0!</v>
       </c>
     </row>
   </sheetData>
@@ -3246,7 +3333,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:Q23"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
+    <sheetView topLeftCell="C1" zoomScale="150" workbookViewId="0">
       <selection activeCell="D16" sqref="D16:K18"/>
     </sheetView>
   </sheetViews>
@@ -3891,10 +3978,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -3947,6 +4034,15 @@
       <c r="F2" s="18">
         <v>40</v>
       </c>
+      <c r="G2">
+        <v>12</v>
+      </c>
+      <c r="H2" s="18">
+        <v>60</v>
+      </c>
+      <c r="I2" s="20" t="s">
+        <v>212</v>
+      </c>
     </row>
     <row r="3" spans="1:9" ht="14">
       <c r="A3" s="18" t="s">
@@ -3967,6 +4063,15 @@
       <c r="F3" s="18">
         <v>60</v>
       </c>
+      <c r="G3">
+        <v>28</v>
+      </c>
+      <c r="H3" s="18">
+        <v>120</v>
+      </c>
+      <c r="I3" s="20" t="s">
+        <v>212</v>
+      </c>
     </row>
     <row r="4" spans="1:9" ht="14">
       <c r="A4" s="18" t="s">
@@ -4045,6 +4150,15 @@
       <c r="F6" s="18">
         <v>30</v>
       </c>
+      <c r="G6">
+        <v>28</v>
+      </c>
+      <c r="H6" s="18">
+        <v>30</v>
+      </c>
+      <c r="I6" s="20" t="s">
+        <v>212</v>
+      </c>
     </row>
     <row r="7" spans="1:9" ht="14">
       <c r="A7" s="18" t="s">
@@ -4065,6 +4179,15 @@
       <c r="F7" s="18">
         <v>30</v>
       </c>
+      <c r="G7">
+        <v>12</v>
+      </c>
+      <c r="H7" s="18">
+        <v>30</v>
+      </c>
+      <c r="I7" s="20" t="s">
+        <v>212</v>
+      </c>
     </row>
     <row r="8" spans="1:9" ht="14">
       <c r="A8" s="18" t="s">
@@ -4143,6 +4266,15 @@
       <c r="F10" s="18">
         <v>30</v>
       </c>
+      <c r="G10">
+        <v>70</v>
+      </c>
+      <c r="H10" s="18">
+        <v>180</v>
+      </c>
+      <c r="I10" s="20" t="s">
+        <v>212</v>
+      </c>
     </row>
     <row r="11" spans="1:9" ht="14">
       <c r="A11" s="18" t="s">
@@ -4162,6 +4294,25 @@
       </c>
       <c r="F11" s="18">
         <v>30</v>
+      </c>
+      <c r="G11">
+        <v>60</v>
+      </c>
+      <c r="H11" s="18">
+        <v>180</v>
+      </c>
+      <c r="I11" s="20" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="G12">
+        <f>SUM(G2:G11)</f>
+        <v>343</v>
+      </c>
+      <c r="H12">
+        <f>SUM(H2:H11)</f>
+        <v>1050</v>
       </c>
     </row>
   </sheetData>
@@ -4173,13 +4324,16 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
+  <cols>
+    <col min="2" max="2" width="26.83203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="28">
       <c r="A1" s="4" t="s">
@@ -4208,6 +4362,206 @@
       </c>
       <c r="I1" s="10" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>194</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>208</v>
+      </c>
+      <c r="E2">
+        <v>20</v>
+      </c>
+      <c r="F2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>210</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>208</v>
+      </c>
+      <c r="E3">
+        <v>40</v>
+      </c>
+      <c r="F3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" t="s">
+        <v>134</v>
+      </c>
+      <c r="B4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>210</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>208</v>
+      </c>
+      <c r="E4">
+        <v>40</v>
+      </c>
+      <c r="F4">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" t="s">
+        <v>135</v>
+      </c>
+      <c r="B5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>195</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>208</v>
+      </c>
+      <c r="E5">
+        <v>30</v>
+      </c>
+      <c r="F5">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" t="s">
+        <v>136</v>
+      </c>
+      <c r="B6" t="s">
+        <v>92</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>196</v>
+      </c>
+      <c r="D6" s="20" t="s">
+        <v>208</v>
+      </c>
+      <c r="E6">
+        <v>50</v>
+      </c>
+      <c r="F6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" t="s">
+        <v>137</v>
+      </c>
+      <c r="B7" t="s">
+        <v>93</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>195</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>208</v>
+      </c>
+      <c r="E7">
+        <v>20</v>
+      </c>
+      <c r="F7">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" t="s">
+        <v>138</v>
+      </c>
+      <c r="B8" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>194</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>208</v>
+      </c>
+      <c r="E8">
+        <v>80</v>
+      </c>
+      <c r="F8">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" t="s">
+        <v>139</v>
+      </c>
+      <c r="B9" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="C9" s="20" t="s">
+        <v>196</v>
+      </c>
+      <c r="D9" s="20" t="s">
+        <v>208</v>
+      </c>
+      <c r="E9">
+        <v>20</v>
+      </c>
+      <c r="F9">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" t="s">
+        <v>140</v>
+      </c>
+      <c r="B10" t="s">
+        <v>96</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>193</v>
+      </c>
+      <c r="D10" s="20" t="s">
+        <v>208</v>
+      </c>
+      <c r="E10">
+        <v>15</v>
+      </c>
+      <c r="F10">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" t="s">
+        <v>141</v>
+      </c>
+      <c r="B11" t="s">
+        <v>97</v>
+      </c>
+      <c r="C11" s="20" t="s">
+        <v>193</v>
+      </c>
+      <c r="D11" s="20" t="s">
+        <v>208</v>
+      </c>
+      <c r="E11">
+        <v>15</v>
+      </c>
+      <c r="F11">
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -4265,8 +4619,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:C43"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="A42" sqref="A42:B43"/>
+    <sheetView topLeftCell="A23" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>

--- a/TeamReport.xlsx
+++ b/TeamReport.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10812"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10908"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michaelwen/Documents/555/homework/CS-SSW-555-Group-Project/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michaelwen/Documents/555/homework/4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{943C21D3-B846-CB4E-B27C-A583AB550518}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39EF7D75-0AFC-2C45-8B8A-C3C08135428F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="35940" yWindow="12940" windowWidth="28540" windowHeight="22700" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="658" uniqueCount="283">
   <si>
     <t>Date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -686,9 +686,6 @@
     <t>RobertZSun</t>
   </si>
   <si>
-    <t>https://github.com/Taochai/SSW-CS-555-Group-project</t>
-  </si>
-  <si>
     <t>robertsunzhe@hotmail.com</t>
   </si>
   <si>
@@ -716,100 +713,10 @@
     <t>userStories.java</t>
   </si>
   <si>
-    <t>247-277</t>
-  </si>
-  <si>
-    <t>userStoriesTest</t>
-  </si>
-  <si>
-    <t>TestUS01</t>
-  </si>
-  <si>
-    <t>51-59</t>
-  </si>
-  <si>
-    <t>126-135</t>
-  </si>
-  <si>
-    <t>TestUS02</t>
-  </si>
-  <si>
-    <t>41-49</t>
-  </si>
-  <si>
     <t>60min</t>
   </si>
   <si>
     <t>116-124</t>
-  </si>
-  <si>
-    <t>TestUS03</t>
-  </si>
-  <si>
-    <t>33-39</t>
-  </si>
-  <si>
-    <t>106-113</t>
-  </si>
-  <si>
-    <t>TestUS04</t>
-  </si>
-  <si>
-    <t>61-69</t>
-  </si>
-  <si>
-    <t>88-103</t>
-  </si>
-  <si>
-    <t>TestUS05</t>
-  </si>
-  <si>
-    <t>71-79</t>
-  </si>
-  <si>
-    <t>70-85</t>
-  </si>
-  <si>
-    <t>TestUS06</t>
-  </si>
-  <si>
-    <t>81-89</t>
-  </si>
-  <si>
-    <t>59-66</t>
-  </si>
-  <si>
-    <t>TestUS07</t>
-  </si>
-  <si>
-    <t>91-99</t>
-  </si>
-  <si>
-    <t>188-208</t>
-  </si>
-  <si>
-    <t>TestUS08</t>
-  </si>
-  <si>
-    <t>23-31</t>
-  </si>
-  <si>
-    <t>211-246</t>
-  </si>
-  <si>
-    <t>TestUS09</t>
-  </si>
-  <si>
-    <t>101-109</t>
-  </si>
-  <si>
-    <t>138-186</t>
-  </si>
-  <si>
-    <t>TestUS10</t>
-  </si>
-  <si>
-    <t>111-119</t>
   </si>
   <si>
     <t>great</t>
@@ -832,6 +739,189 @@
   <si>
     <t>Note: During sprint1, we made a lot of change in file structure, and the new file has many conflicts with git master.  
 So we made a new repo with the same name and URL as before</t>
+  </si>
+  <si>
+    <t>https://github.com/Taochai/CS-SSW-555-Group-Project</t>
+  </si>
+  <si>
+    <t>305-318</t>
+  </si>
+  <si>
+    <t>320-349</t>
+  </si>
+  <si>
+    <t>352-393</t>
+  </si>
+  <si>
+    <t>395-421</t>
+  </si>
+  <si>
+    <t>423-431</t>
+  </si>
+  <si>
+    <t>432-445</t>
+  </si>
+  <si>
+    <t>447-465</t>
+  </si>
+  <si>
+    <t>467-488</t>
+  </si>
+  <si>
+    <t>490-578</t>
+  </si>
+  <si>
+    <t>580-637</t>
+  </si>
+  <si>
+    <t>userStoriesTest.java</t>
+  </si>
+  <si>
+    <t>TestUS11T &amp; TestUS11F</t>
+  </si>
+  <si>
+    <t>TestUS12T &amp; TestUS12F</t>
+  </si>
+  <si>
+    <t>TestUS13T &amp; TestUS13F</t>
+  </si>
+  <si>
+    <t>TestUS14T &amp; TestUS14F</t>
+  </si>
+  <si>
+    <t>TestUS15T &amp; TestUS15F</t>
+  </si>
+  <si>
+    <t>TestUS16T &amp; TestUS16F</t>
+  </si>
+  <si>
+    <t>TestUS17T &amp; TestUS17F</t>
+  </si>
+  <si>
+    <t>TestUS18T &amp; TestUS18F</t>
+  </si>
+  <si>
+    <t>TestUS19T &amp; TestUS19F</t>
+  </si>
+  <si>
+    <t>TestUS20T &amp; TestUS20F</t>
+  </si>
+  <si>
+    <t>240-261</t>
+  </si>
+  <si>
+    <t>263-284</t>
+  </si>
+  <si>
+    <t>297-306</t>
+  </si>
+  <si>
+    <t>308-328</t>
+  </si>
+  <si>
+    <t>330-351</t>
+  </si>
+  <si>
+    <t>353-374</t>
+  </si>
+  <si>
+    <t>376-396</t>
+  </si>
+  <si>
+    <t>398-419</t>
+  </si>
+  <si>
+    <t>421-443</t>
+  </si>
+  <si>
+    <t>445-467</t>
+  </si>
+  <si>
+    <t>66-99</t>
+  </si>
+  <si>
+    <t>101-114</t>
+  </si>
+  <si>
+    <t>126-134</t>
+  </si>
+  <si>
+    <t>136-153</t>
+  </si>
+  <si>
+    <t>155-171</t>
+  </si>
+  <si>
+    <t>173-183</t>
+  </si>
+  <si>
+    <t>185-221</t>
+  </si>
+  <si>
+    <t>223-252</t>
+  </si>
+  <si>
+    <t>254-303</t>
+  </si>
+  <si>
+    <t>TestUS01T &amp; TestUS01F</t>
+  </si>
+  <si>
+    <t>TestUS02T &amp; TestUS02F</t>
+  </si>
+  <si>
+    <t>TestUS03T &amp; TestUS03F</t>
+  </si>
+  <si>
+    <t>TestUS04T &amp; TestUS04F</t>
+  </si>
+  <si>
+    <t>TestUS05T &amp; TestUS05F</t>
+  </si>
+  <si>
+    <t>TestUS06T &amp; TestUS06F</t>
+  </si>
+  <si>
+    <t>TestUS07T &amp; TestUS07F</t>
+  </si>
+  <si>
+    <t>TestUS08T &amp; TestUS08F</t>
+  </si>
+  <si>
+    <t>TestUS09T &amp; TestUS09F</t>
+  </si>
+  <si>
+    <t>TestUS10T &amp; TestUS10F</t>
+  </si>
+  <si>
+    <t>23-43</t>
+  </si>
+  <si>
+    <t>45-65</t>
+  </si>
+  <si>
+    <t>67-83</t>
+  </si>
+  <si>
+    <t>85-105</t>
+  </si>
+  <si>
+    <t>107-127</t>
+  </si>
+  <si>
+    <t>129-149</t>
+  </si>
+  <si>
+    <t>151-171</t>
+  </si>
+  <si>
+    <t>173-194</t>
+  </si>
+  <si>
+    <t>196-216</t>
+  </si>
+  <si>
+    <t>218-238</t>
   </si>
 </sst>
 </file>
@@ -2204,8 +2294,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView zoomScale="150" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -2245,7 +2335,7 @@
         <v>191</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E2" t="s">
         <v>199</v>
@@ -2262,7 +2352,7 @@
         <v>185</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E3" t="s">
         <v>203</v>
@@ -2279,7 +2369,7 @@
         <v>183</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E4" t="s">
         <v>201</v>
@@ -2324,7 +2414,7 @@
         <v>34</v>
       </c>
       <c r="E9" s="17" t="s">
-        <v>204</v>
+        <v>222</v>
       </c>
     </row>
   </sheetData>
@@ -2393,7 +2483,7 @@
         <v>195</v>
       </c>
       <c r="E2" s="18" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="14">
@@ -2410,7 +2500,7 @@
         <v>196</v>
       </c>
       <c r="E3" s="18" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="14">
@@ -2427,7 +2517,7 @@
         <v>196</v>
       </c>
       <c r="E4" s="18" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="14">
@@ -2444,7 +2534,7 @@
         <v>193</v>
       </c>
       <c r="E5" s="18" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="14">
@@ -2461,7 +2551,7 @@
         <v>192</v>
       </c>
       <c r="E6" s="18" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="14">
@@ -2478,7 +2568,7 @@
         <v>192</v>
       </c>
       <c r="E7" s="18" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="14">
@@ -2495,7 +2585,7 @@
         <v>193</v>
       </c>
       <c r="E8" s="18" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="14">
@@ -2512,7 +2602,7 @@
         <v>194</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="14">
@@ -2529,7 +2619,7 @@
         <v>194</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="14">
@@ -2546,7 +2636,7 @@
         <v>195</v>
       </c>
       <c r="E11" s="18" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="14">
@@ -2563,7 +2653,7 @@
         <v>196</v>
       </c>
       <c r="E12" s="18" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="14">
@@ -2580,7 +2670,7 @@
         <v>196</v>
       </c>
       <c r="E13" s="18" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="14">
@@ -2597,7 +2687,7 @@
         <v>195</v>
       </c>
       <c r="E14" s="18" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="14">
@@ -2614,7 +2704,7 @@
         <v>195</v>
       </c>
       <c r="E15" s="18" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="14">
@@ -2628,10 +2718,10 @@
         <v>81</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E16" s="18" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="14">
@@ -2645,10 +2735,10 @@
         <v>82</v>
       </c>
       <c r="D17" s="18" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E17" s="18" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="14">
@@ -2665,7 +2755,7 @@
         <v>194</v>
       </c>
       <c r="E18" s="18" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="14">
@@ -2682,7 +2772,7 @@
         <v>194</v>
       </c>
       <c r="E19" s="18" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="14">
@@ -2699,7 +2789,7 @@
         <v>193</v>
       </c>
       <c r="E20" s="18" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="14">
@@ -2716,7 +2806,7 @@
         <v>193</v>
       </c>
       <c r="E21" s="18" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="14">
@@ -2733,7 +2823,7 @@
         <v>194</v>
       </c>
       <c r="E22" s="18" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="14">
@@ -2747,10 +2837,10 @@
         <v>89</v>
       </c>
       <c r="D23" s="20" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E23" s="18" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="14">
@@ -2764,10 +2854,10 @@
         <v>90</v>
       </c>
       <c r="D24" s="20" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E24" s="18" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="14">
@@ -2784,7 +2874,7 @@
         <v>195</v>
       </c>
       <c r="E25" s="18" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="14">
@@ -2801,7 +2891,7 @@
         <v>196</v>
       </c>
       <c r="E26" s="18" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="14">
@@ -2818,7 +2908,7 @@
         <v>195</v>
       </c>
       <c r="E27" s="18" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="14">
@@ -2835,7 +2925,7 @@
         <v>194</v>
       </c>
       <c r="E28" s="18" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="14">
@@ -2852,7 +2942,7 @@
         <v>196</v>
       </c>
       <c r="E29" s="18" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="14">
@@ -2869,7 +2959,7 @@
         <v>193</v>
       </c>
       <c r="E30" s="18" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="14">
@@ -2886,7 +2976,7 @@
         <v>193</v>
       </c>
       <c r="E31" s="18" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -3317,7 +3407,7 @@
         <v>42320</v>
       </c>
       <c r="F6" s="9" t="e">
-        <f t="shared" ref="F5:F6" si="0">(D6-D5)/E6*60</f>
+        <f t="shared" ref="F6" si="0">(D6-D5)/E6*60</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -3333,8 +3423,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:Q23"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16:K18"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -3352,8 +3442,8 @@
     <col min="12" max="12" width="19.1640625" style="16" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="13" style="16" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="1.83203125" style="16" customWidth="1"/>
-    <col min="15" max="15" width="10.1640625" style="16" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16.5" style="16" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.5" style="16" customWidth="1"/>
+    <col min="16" max="16" width="31.1640625" style="16" customWidth="1"/>
     <col min="17" max="17" width="10.1640625" style="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3415,13 +3505,13 @@
         <v>195</v>
       </c>
       <c r="D2" s="18" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E2" s="18">
         <v>40</v>
       </c>
       <c r="F2" s="18" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G2" s="18">
         <v>30</v>
@@ -3430,27 +3520,27 @@
         <v>40</v>
       </c>
       <c r="I2" s="20" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="J2" s="18"/>
       <c r="K2" s="20" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="L2" s="20" t="s">
         <v>112</v>
       </c>
       <c r="M2" s="20" t="s">
-        <v>214</v>
+        <v>254</v>
       </c>
       <c r="N2" s="18"/>
       <c r="O2" s="20" t="s">
-        <v>215</v>
+        <v>233</v>
       </c>
       <c r="P2" s="20" t="s">
-        <v>216</v>
+        <v>263</v>
       </c>
       <c r="Q2" s="20" t="s">
-        <v>217</v>
+        <v>273</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="14">
@@ -3464,13 +3554,13 @@
         <v>196</v>
       </c>
       <c r="D3" s="18" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E3" s="18">
         <v>30</v>
       </c>
       <c r="F3" s="18" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G3" s="18">
         <v>9</v>
@@ -3479,27 +3569,27 @@
         <v>15</v>
       </c>
       <c r="I3" s="20" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="J3" s="18"/>
       <c r="K3" s="20" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="L3" s="20" t="s">
         <v>113</v>
       </c>
       <c r="M3" s="20" t="s">
-        <v>218</v>
+        <v>255</v>
       </c>
       <c r="N3" s="18"/>
       <c r="O3" s="20" t="s">
-        <v>215</v>
+        <v>233</v>
       </c>
       <c r="P3" s="20" t="s">
-        <v>219</v>
+        <v>264</v>
       </c>
       <c r="Q3" s="20" t="s">
-        <v>220</v>
+        <v>274</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="14">
@@ -3513,13 +3603,13 @@
         <v>196</v>
       </c>
       <c r="D4" s="18" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E4" s="18">
         <v>30</v>
       </c>
       <c r="F4" s="18" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="G4" s="18">
         <v>7</v>
@@ -3528,27 +3618,27 @@
         <v>10</v>
       </c>
       <c r="I4" s="20" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="J4" s="18"/>
       <c r="K4" s="20" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="L4" s="20" t="s">
         <v>114</v>
       </c>
       <c r="M4" s="20" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="N4" s="18"/>
       <c r="O4" s="20" t="s">
-        <v>215</v>
+        <v>233</v>
       </c>
       <c r="P4" s="20" t="s">
-        <v>223</v>
+        <v>265</v>
       </c>
       <c r="Q4" s="20" t="s">
-        <v>224</v>
+        <v>275</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="14">
@@ -3562,13 +3652,13 @@
         <v>193</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E5" s="18">
         <v>20</v>
       </c>
       <c r="F5" s="18" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="G5" s="18">
         <v>9</v>
@@ -3577,27 +3667,27 @@
         <v>15</v>
       </c>
       <c r="I5" s="20" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="J5" s="18"/>
       <c r="K5" s="20" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="L5" s="20" t="s">
         <v>115</v>
       </c>
       <c r="M5" s="20" t="s">
-        <v>225</v>
+        <v>256</v>
       </c>
       <c r="N5" s="18"/>
       <c r="O5" s="20" t="s">
-        <v>215</v>
+        <v>233</v>
       </c>
       <c r="P5" s="20" t="s">
-        <v>226</v>
+        <v>266</v>
       </c>
       <c r="Q5" s="20" t="s">
-        <v>227</v>
+        <v>276</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="14">
@@ -3608,16 +3698,16 @@
         <v>70</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E6" s="18">
         <v>20</v>
       </c>
       <c r="F6" s="18" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="G6" s="18">
         <v>15</v>
@@ -3626,27 +3716,27 @@
         <v>10</v>
       </c>
       <c r="I6" s="20" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="J6" s="18"/>
       <c r="K6" s="20" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="L6" s="20" t="s">
         <v>116</v>
       </c>
       <c r="M6" s="20" t="s">
-        <v>228</v>
+        <v>257</v>
       </c>
       <c r="N6" s="18"/>
       <c r="O6" s="20" t="s">
-        <v>215</v>
+        <v>233</v>
       </c>
       <c r="P6" s="20" t="s">
-        <v>229</v>
+        <v>267</v>
       </c>
       <c r="Q6" s="20" t="s">
-        <v>230</v>
+        <v>277</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="14">
@@ -3657,16 +3747,16 @@
         <v>71</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E7" s="18">
         <v>30</v>
       </c>
       <c r="F7" s="18" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="G7" s="18">
         <v>15</v>
@@ -3675,27 +3765,27 @@
         <v>10</v>
       </c>
       <c r="I7" s="20" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="J7" s="18"/>
       <c r="K7" s="20" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="L7" s="20" t="s">
         <v>117</v>
       </c>
       <c r="M7" s="20" t="s">
-        <v>231</v>
+        <v>258</v>
       </c>
       <c r="N7" s="18"/>
       <c r="O7" s="20" t="s">
-        <v>215</v>
+        <v>233</v>
       </c>
       <c r="P7" s="20" t="s">
-        <v>232</v>
+        <v>268</v>
       </c>
       <c r="Q7" s="20" t="s">
-        <v>233</v>
+        <v>278</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="14">
@@ -3709,13 +3799,13 @@
         <v>193</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E8" s="18">
         <v>30</v>
       </c>
       <c r="F8" s="18" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="G8" s="18">
         <v>7</v>
@@ -3724,27 +3814,27 @@
         <v>15</v>
       </c>
       <c r="I8" s="20" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="J8" s="18"/>
       <c r="K8" s="20" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="L8" s="20" t="s">
         <v>118</v>
       </c>
       <c r="M8" s="20" t="s">
-        <v>234</v>
+        <v>259</v>
       </c>
       <c r="N8" s="18"/>
       <c r="O8" s="20" t="s">
-        <v>215</v>
+        <v>233</v>
       </c>
       <c r="P8" s="20" t="s">
-        <v>235</v>
+        <v>269</v>
       </c>
       <c r="Q8" s="20" t="s">
-        <v>236</v>
+        <v>279</v>
       </c>
     </row>
     <row r="9" spans="1:17" ht="14">
@@ -3758,13 +3848,13 @@
         <v>194</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E9" s="18">
         <v>40</v>
       </c>
       <c r="F9" s="18" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G9" s="18">
         <v>20</v>
@@ -3773,27 +3863,27 @@
         <v>20</v>
       </c>
       <c r="I9" s="20" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="J9" s="18"/>
       <c r="K9" s="20" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="L9" s="20" t="s">
         <v>119</v>
       </c>
       <c r="M9" s="20" t="s">
-        <v>237</v>
+        <v>260</v>
       </c>
       <c r="N9" s="18"/>
       <c r="O9" s="20" t="s">
-        <v>215</v>
+        <v>233</v>
       </c>
       <c r="P9" s="20" t="s">
-        <v>238</v>
+        <v>270</v>
       </c>
       <c r="Q9" s="20" t="s">
-        <v>239</v>
+        <v>280</v>
       </c>
     </row>
     <row r="10" spans="1:17" ht="14">
@@ -3807,13 +3897,13 @@
         <v>194</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E10" s="18">
         <v>40</v>
       </c>
       <c r="F10" s="18" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="G10" s="18">
         <v>31</v>
@@ -3822,27 +3912,27 @@
         <v>40</v>
       </c>
       <c r="I10" s="20" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="J10" s="18"/>
       <c r="K10" s="20" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="L10" s="20" t="s">
         <v>120</v>
       </c>
       <c r="M10" s="20" t="s">
-        <v>240</v>
+        <v>261</v>
       </c>
       <c r="N10" s="18"/>
       <c r="O10" s="20" t="s">
-        <v>215</v>
+        <v>233</v>
       </c>
       <c r="P10" s="20" t="s">
-        <v>241</v>
+        <v>271</v>
       </c>
       <c r="Q10" s="20" t="s">
-        <v>242</v>
+        <v>281</v>
       </c>
     </row>
     <row r="11" spans="1:17" ht="14">
@@ -3856,13 +3946,13 @@
         <v>195</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E11" s="18">
         <v>40</v>
       </c>
       <c r="F11" s="18" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G11" s="18">
         <v>48</v>
@@ -3871,27 +3961,27 @@
         <v>40</v>
       </c>
       <c r="I11" s="20" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="J11" s="18"/>
       <c r="K11" s="20" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="L11" s="20" t="s">
         <v>121</v>
       </c>
       <c r="M11" s="20" t="s">
-        <v>243</v>
+        <v>262</v>
       </c>
       <c r="N11" s="18"/>
       <c r="O11" s="20" t="s">
-        <v>215</v>
+        <v>233</v>
       </c>
       <c r="P11" s="20" t="s">
-        <v>244</v>
+        <v>272</v>
       </c>
       <c r="Q11" s="20" t="s">
-        <v>245</v>
+        <v>282</v>
       </c>
     </row>
     <row r="14" spans="1:17" ht="14">
@@ -3901,7 +3991,7 @@
     </row>
     <row r="15" spans="1:17" ht="14">
       <c r="B15" s="5" t="s">
-        <v>246</v>
+        <v>215</v>
       </c>
       <c r="I15" s="7"/>
     </row>
@@ -3910,7 +4000,7 @@
         <v>31</v>
       </c>
       <c r="D16" s="23" t="s">
-        <v>252</v>
+        <v>221</v>
       </c>
       <c r="E16" s="24"/>
       <c r="F16" s="24"/>
@@ -3922,7 +4012,7 @@
     </row>
     <row r="17" spans="2:11" ht="28">
       <c r="B17" s="21" t="s">
-        <v>247</v>
+        <v>216</v>
       </c>
       <c r="D17" s="24"/>
       <c r="E17" s="24"/>
@@ -3935,7 +4025,7 @@
     </row>
     <row r="18" spans="2:11" ht="14">
       <c r="B18" s="21" t="s">
-        <v>248</v>
+        <v>217</v>
       </c>
       <c r="D18" s="24"/>
       <c r="E18" s="24"/>
@@ -3953,17 +4043,17 @@
     </row>
     <row r="21" spans="2:11" ht="14">
       <c r="B21" s="21" t="s">
-        <v>249</v>
+        <v>218</v>
       </c>
     </row>
     <row r="22" spans="2:11" ht="14">
       <c r="B22" s="21" t="s">
-        <v>250</v>
+        <v>219</v>
       </c>
     </row>
     <row r="23" spans="2:11" ht="28">
       <c r="B23" s="21" t="s">
-        <v>251</v>
+        <v>220</v>
       </c>
     </row>
   </sheetData>
@@ -3978,15 +4068,18 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:Q12"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView topLeftCell="F1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="P2" sqref="P2:P11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
+  <cols>
+    <col min="15" max="16" width="23.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="28">
+    <row r="1" spans="1:17" ht="28">
       <c r="A1" s="4" t="s">
         <v>9</v>
       </c>
@@ -4014,8 +4107,27 @@
       <c r="I1" s="10" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" ht="14">
+      <c r="K1" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="L1" s="15" t="s">
+        <v>178</v>
+      </c>
+      <c r="M1" s="15" t="s">
+        <v>179</v>
+      </c>
+      <c r="N1" s="16"/>
+      <c r="O1" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="P1" s="15" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q1" s="15" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="14">
       <c r="A2" s="18" t="s">
         <v>122</v>
       </c>
@@ -4026,7 +4138,7 @@
         <v>196</v>
       </c>
       <c r="D2" s="18" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E2" s="18">
         <v>20</v>
@@ -4041,10 +4153,28 @@
         <v>60</v>
       </c>
       <c r="I2" s="20" t="s">
+        <v>211</v>
+      </c>
+      <c r="K2" s="20" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" ht="14">
+      <c r="L2" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="M2" s="20" t="s">
+        <v>223</v>
+      </c>
+      <c r="O2" s="20" t="s">
+        <v>233</v>
+      </c>
+      <c r="P2" s="20" t="s">
+        <v>234</v>
+      </c>
+      <c r="Q2" s="20" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="14">
       <c r="A3" s="18" t="s">
         <v>123</v>
       </c>
@@ -4055,7 +4185,7 @@
         <v>196</v>
       </c>
       <c r="D3" s="18" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E3" s="18">
         <v>20</v>
@@ -4070,10 +4200,28 @@
         <v>120</v>
       </c>
       <c r="I3" s="20" t="s">
+        <v>211</v>
+      </c>
+      <c r="K3" s="20" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" ht="14">
+      <c r="L3" s="20" t="s">
+        <v>123</v>
+      </c>
+      <c r="M3" s="20" t="s">
+        <v>224</v>
+      </c>
+      <c r="O3" s="20" t="s">
+        <v>233</v>
+      </c>
+      <c r="P3" s="20" t="s">
+        <v>235</v>
+      </c>
+      <c r="Q3" s="20" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="14">
       <c r="A4" s="18" t="s">
         <v>124</v>
       </c>
@@ -4084,7 +4232,7 @@
         <v>195</v>
       </c>
       <c r="D4" s="18" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E4" s="18">
         <v>30</v>
@@ -4099,10 +4247,28 @@
         <v>120</v>
       </c>
       <c r="I4" s="20" t="s">
+        <v>211</v>
+      </c>
+      <c r="K4" s="20" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" ht="14">
+      <c r="L4" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="M4" s="20" t="s">
+        <v>225</v>
+      </c>
+      <c r="O4" s="20" t="s">
+        <v>233</v>
+      </c>
+      <c r="P4" s="20" t="s">
+        <v>236</v>
+      </c>
+      <c r="Q4" s="20" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="14">
       <c r="A5" s="18" t="s">
         <v>125</v>
       </c>
@@ -4113,7 +4279,7 @@
         <v>195</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E5" s="18">
         <v>30</v>
@@ -4128,10 +4294,28 @@
         <v>60</v>
       </c>
       <c r="I5" s="20" t="s">
+        <v>211</v>
+      </c>
+      <c r="K5" s="20" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" ht="14">
+      <c r="L5" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="M5" s="20" t="s">
+        <v>226</v>
+      </c>
+      <c r="O5" s="20" t="s">
+        <v>233</v>
+      </c>
+      <c r="P5" s="20" t="s">
+        <v>237</v>
+      </c>
+      <c r="Q5" s="20" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="14">
       <c r="A6" s="18" t="s">
         <v>126</v>
       </c>
@@ -4139,10 +4323,10 @@
         <v>81</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E6" s="18">
         <v>30</v>
@@ -4157,10 +4341,28 @@
         <v>30</v>
       </c>
       <c r="I6" s="20" t="s">
+        <v>211</v>
+      </c>
+      <c r="K6" s="20" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" ht="14">
+      <c r="L6" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="M6" s="20" t="s">
+        <v>227</v>
+      </c>
+      <c r="O6" s="20" t="s">
+        <v>233</v>
+      </c>
+      <c r="P6" s="20" t="s">
+        <v>238</v>
+      </c>
+      <c r="Q6" s="20" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="14">
       <c r="A7" s="18" t="s">
         <v>127</v>
       </c>
@@ -4168,10 +4370,10 @@
         <v>82</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E7" s="18">
         <v>20</v>
@@ -4186,10 +4388,28 @@
         <v>30</v>
       </c>
       <c r="I7" s="20" t="s">
+        <v>211</v>
+      </c>
+      <c r="K7" s="20" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" ht="14">
+      <c r="L7" s="20" t="s">
+        <v>127</v>
+      </c>
+      <c r="M7" s="20" t="s">
+        <v>228</v>
+      </c>
+      <c r="O7" s="20" t="s">
+        <v>233</v>
+      </c>
+      <c r="P7" s="20" t="s">
+        <v>239</v>
+      </c>
+      <c r="Q7" s="20" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="14">
       <c r="A8" s="18" t="s">
         <v>128</v>
       </c>
@@ -4200,7 +4420,7 @@
         <v>194</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E8" s="18">
         <v>20</v>
@@ -4215,10 +4435,28 @@
         <v>120</v>
       </c>
       <c r="I8" s="20" t="s">
+        <v>211</v>
+      </c>
+      <c r="K8" s="20" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" ht="14">
+      <c r="L8" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="M8" s="20" t="s">
+        <v>229</v>
+      </c>
+      <c r="O8" s="20" t="s">
+        <v>233</v>
+      </c>
+      <c r="P8" s="20" t="s">
+        <v>240</v>
+      </c>
+      <c r="Q8" s="20" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="14">
       <c r="A9" s="18" t="s">
         <v>129</v>
       </c>
@@ -4229,7 +4467,7 @@
         <v>194</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E9" s="18">
         <v>20</v>
@@ -4244,10 +4482,28 @@
         <v>150</v>
       </c>
       <c r="I9" s="20" t="s">
+        <v>211</v>
+      </c>
+      <c r="K9" s="20" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" ht="14">
+      <c r="L9" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="M9" s="20" t="s">
+        <v>230</v>
+      </c>
+      <c r="O9" s="20" t="s">
+        <v>233</v>
+      </c>
+      <c r="P9" s="20" t="s">
+        <v>241</v>
+      </c>
+      <c r="Q9" s="20" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="14">
       <c r="A10" s="18" t="s">
         <v>130</v>
       </c>
@@ -4258,7 +4514,7 @@
         <v>193</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E10" s="18">
         <v>20</v>
@@ -4273,10 +4529,28 @@
         <v>180</v>
       </c>
       <c r="I10" s="20" t="s">
+        <v>211</v>
+      </c>
+      <c r="K10" s="20" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" ht="14">
+      <c r="L10" s="20" t="s">
+        <v>130</v>
+      </c>
+      <c r="M10" s="20" t="s">
+        <v>231</v>
+      </c>
+      <c r="O10" s="20" t="s">
+        <v>233</v>
+      </c>
+      <c r="P10" s="20" t="s">
+        <v>242</v>
+      </c>
+      <c r="Q10" s="20" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="14">
       <c r="A11" s="18" t="s">
         <v>131</v>
       </c>
@@ -4287,7 +4561,7 @@
         <v>193</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E11" s="18">
         <v>20</v>
@@ -4302,10 +4576,28 @@
         <v>180</v>
       </c>
       <c r="I11" s="20" t="s">
+        <v>211</v>
+      </c>
+      <c r="K11" s="20" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="12" spans="1:9">
+      <c r="L11" s="20" t="s">
+        <v>131</v>
+      </c>
+      <c r="M11" s="20" t="s">
+        <v>232</v>
+      </c>
+      <c r="O11" s="20" t="s">
+        <v>233</v>
+      </c>
+      <c r="P11" s="20" t="s">
+        <v>243</v>
+      </c>
+      <c r="Q11" s="20" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="G12">
         <f>SUM(G2:G11)</f>
         <v>343</v>
@@ -4335,7 +4627,7 @@
     <col min="2" max="2" width="26.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="28">
+    <row r="1" spans="1:9" ht="14">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
@@ -4375,7 +4667,7 @@
         <v>194</v>
       </c>
       <c r="D2" s="20" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E2">
         <v>20</v>
@@ -4392,10 +4684,10 @@
         <v>89</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D3" s="20" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E3">
         <v>40</v>
@@ -4412,10 +4704,10 @@
         <v>90</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E4">
         <v>40</v>
@@ -4435,7 +4727,7 @@
         <v>195</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E5">
         <v>30</v>
@@ -4455,7 +4747,7 @@
         <v>196</v>
       </c>
       <c r="D6" s="20" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E6">
         <v>50</v>
@@ -4475,7 +4767,7 @@
         <v>195</v>
       </c>
       <c r="D7" s="20" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E7">
         <v>20</v>
@@ -4495,7 +4787,7 @@
         <v>194</v>
       </c>
       <c r="D8" s="20" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E8">
         <v>80</v>
@@ -4515,7 +4807,7 @@
         <v>196</v>
       </c>
       <c r="D9" s="20" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E9">
         <v>20</v>
@@ -4535,7 +4827,7 @@
         <v>193</v>
       </c>
       <c r="D10" s="20" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E10">
         <v>15</v>
@@ -4555,7 +4847,7 @@
         <v>193</v>
       </c>
       <c r="D11" s="20" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E11">
         <v>15</v>

--- a/TeamReport.xlsx
+++ b/TeamReport.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michaelwen/Documents/555/homework/4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39EF7D75-0AFC-2C45-8B8A-C3C08135428F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7C3F950-F28D-DC4B-A320-E5DC5CB468EB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35940" yWindow="12940" windowWidth="28540" windowHeight="22700" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="35940" yWindow="12940" windowWidth="28540" windowHeight="22700" tabRatio="500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="658" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="667" uniqueCount="287">
   <si>
     <t>Date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -922,6 +922,19 @@
   </si>
   <si>
     <t>218-238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pull and push code frequently 
+Using github Desktop, resolve confict easier </t>
+  </si>
+  <si>
+    <t xml:space="preserve">not mixix all the userstory test together, trying to seperate </t>
+  </si>
+  <si>
+    <t>try to chage the file output structure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">not mix all the userstory demonstration together, </t>
   </si>
 </sst>
 </file>
@@ -3423,8 +3436,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:Q23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="P11" sqref="P11"/>
+    <sheetView zoomScale="150" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14:B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -4068,14 +4081,15 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:Q12"/>
+  <dimension ref="A1:Q23"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="P2" sqref="P2:P11"/>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
   <cols>
+    <col min="2" max="2" width="21.6640625" customWidth="1"/>
     <col min="15" max="16" width="23.33203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4605,6 +4619,54 @@
       <c r="H12">
         <f>SUM(H2:H11)</f>
         <v>1050</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" ht="28">
+      <c r="B14" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" ht="14">
+      <c r="B15" s="5" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" ht="28">
+      <c r="B16" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" ht="56">
+      <c r="B17" s="21" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" ht="14">
+      <c r="B18" s="21" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2">
+      <c r="B19" s="1"/>
+    </row>
+    <row r="20" spans="2:2" ht="14">
+      <c r="B20" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" ht="42">
+      <c r="B21" s="21" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" ht="42">
+      <c r="B22" s="21" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" ht="28">
+      <c r="B23" s="21" t="s">
+        <v>285</v>
       </c>
     </row>
   </sheetData>

--- a/TeamReport.xlsx
+++ b/TeamReport.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10812"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11013"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michaelwen/Documents/555/homework/CS-SSW-555-Group-Project/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michaelwen/Documents/555/homework/4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{943C21D3-B846-CB4E-B27C-A583AB550518}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{095ADB0B-366C-2245-B3CD-ECEF5F30A72F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="35940" yWindow="12940" windowWidth="28540" windowHeight="22700" tabRatio="500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="667" uniqueCount="287">
   <si>
     <t>Date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -686,9 +686,6 @@
     <t>RobertZSun</t>
   </si>
   <si>
-    <t>https://github.com/Taochai/SSW-CS-555-Group-project</t>
-  </si>
-  <si>
     <t>robertsunzhe@hotmail.com</t>
   </si>
   <si>
@@ -713,103 +710,10 @@
     <t>Y</t>
   </si>
   <si>
-    <t>userStories.java</t>
-  </si>
-  <si>
-    <t>247-277</t>
-  </si>
-  <si>
-    <t>userStoriesTest</t>
-  </si>
-  <si>
-    <t>TestUS01</t>
-  </si>
-  <si>
-    <t>51-59</t>
-  </si>
-  <si>
-    <t>126-135</t>
-  </si>
-  <si>
-    <t>TestUS02</t>
-  </si>
-  <si>
-    <t>41-49</t>
-  </si>
-  <si>
     <t>60min</t>
   </si>
   <si>
     <t>116-124</t>
-  </si>
-  <si>
-    <t>TestUS03</t>
-  </si>
-  <si>
-    <t>33-39</t>
-  </si>
-  <si>
-    <t>106-113</t>
-  </si>
-  <si>
-    <t>TestUS04</t>
-  </si>
-  <si>
-    <t>61-69</t>
-  </si>
-  <si>
-    <t>88-103</t>
-  </si>
-  <si>
-    <t>TestUS05</t>
-  </si>
-  <si>
-    <t>71-79</t>
-  </si>
-  <si>
-    <t>70-85</t>
-  </si>
-  <si>
-    <t>TestUS06</t>
-  </si>
-  <si>
-    <t>81-89</t>
-  </si>
-  <si>
-    <t>59-66</t>
-  </si>
-  <si>
-    <t>TestUS07</t>
-  </si>
-  <si>
-    <t>91-99</t>
-  </si>
-  <si>
-    <t>188-208</t>
-  </si>
-  <si>
-    <t>TestUS08</t>
-  </si>
-  <si>
-    <t>23-31</t>
-  </si>
-  <si>
-    <t>211-246</t>
-  </si>
-  <si>
-    <t>TestUS09</t>
-  </si>
-  <si>
-    <t>101-109</t>
-  </si>
-  <si>
-    <t>138-186</t>
-  </si>
-  <si>
-    <t>TestUS10</t>
-  </si>
-  <si>
-    <t>111-119</t>
   </si>
   <si>
     <t>great</t>
@@ -832,6 +736,205 @@
   <si>
     <t>Note: During sprint1, we made a lot of change in file structure, and the new file has many conflicts with git master.  
 So we made a new repo with the same name and URL as before</t>
+  </si>
+  <si>
+    <t>https://github.com/Taochai/CS-SSW-555-Group-Project</t>
+  </si>
+  <si>
+    <t>TestUS11T &amp; TestUS11F</t>
+  </si>
+  <si>
+    <t>TestUS12T &amp; TestUS12F</t>
+  </si>
+  <si>
+    <t>TestUS13T &amp; TestUS13F</t>
+  </si>
+  <si>
+    <t>TestUS14T &amp; TestUS14F</t>
+  </si>
+  <si>
+    <t>TestUS15T &amp; TestUS15F</t>
+  </si>
+  <si>
+    <t>TestUS16T &amp; TestUS16F</t>
+  </si>
+  <si>
+    <t>TestUS17T &amp; TestUS17F</t>
+  </si>
+  <si>
+    <t>TestUS18T &amp; TestUS18F</t>
+  </si>
+  <si>
+    <t>TestUS19T &amp; TestUS19F</t>
+  </si>
+  <si>
+    <t>TestUS20T &amp; TestUS20F</t>
+  </si>
+  <si>
+    <t>240-261</t>
+  </si>
+  <si>
+    <t>263-284</t>
+  </si>
+  <si>
+    <t>297-306</t>
+  </si>
+  <si>
+    <t>308-328</t>
+  </si>
+  <si>
+    <t>330-351</t>
+  </si>
+  <si>
+    <t>353-374</t>
+  </si>
+  <si>
+    <t>376-396</t>
+  </si>
+  <si>
+    <t>398-419</t>
+  </si>
+  <si>
+    <t>421-443</t>
+  </si>
+  <si>
+    <t>445-467</t>
+  </si>
+  <si>
+    <t>66-99</t>
+  </si>
+  <si>
+    <t>101-114</t>
+  </si>
+  <si>
+    <t>126-134</t>
+  </si>
+  <si>
+    <t>136-153</t>
+  </si>
+  <si>
+    <t>155-171</t>
+  </si>
+  <si>
+    <t>173-183</t>
+  </si>
+  <si>
+    <t>185-221</t>
+  </si>
+  <si>
+    <t>223-252</t>
+  </si>
+  <si>
+    <t>254-303</t>
+  </si>
+  <si>
+    <t>TestUS01T &amp; TestUS01F</t>
+  </si>
+  <si>
+    <t>TestUS02T &amp; TestUS02F</t>
+  </si>
+  <si>
+    <t>TestUS03T &amp; TestUS03F</t>
+  </si>
+  <si>
+    <t>TestUS04T &amp; TestUS04F</t>
+  </si>
+  <si>
+    <t>TestUS05T &amp; TestUS05F</t>
+  </si>
+  <si>
+    <t>TestUS06T &amp; TestUS06F</t>
+  </si>
+  <si>
+    <t>TestUS07T &amp; TestUS07F</t>
+  </si>
+  <si>
+    <t>TestUS08T &amp; TestUS08F</t>
+  </si>
+  <si>
+    <t>TestUS09T &amp; TestUS09F</t>
+  </si>
+  <si>
+    <t>TestUS10T &amp; TestUS10F</t>
+  </si>
+  <si>
+    <t>23-43</t>
+  </si>
+  <si>
+    <t>45-65</t>
+  </si>
+  <si>
+    <t>67-83</t>
+  </si>
+  <si>
+    <t>85-105</t>
+  </si>
+  <si>
+    <t>107-127</t>
+  </si>
+  <si>
+    <t>129-149</t>
+  </si>
+  <si>
+    <t>151-171</t>
+  </si>
+  <si>
+    <t>173-194</t>
+  </si>
+  <si>
+    <t>196-216</t>
+  </si>
+  <si>
+    <t>218-238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pull and push code frequently 
+Using github Desktop, resolve confict easier </t>
+  </si>
+  <si>
+    <t xml:space="preserve">not mixix all the userstory test together, trying to seperate </t>
+  </si>
+  <si>
+    <t>try to chage the file output structure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">not mix all the userstory demonstration together, </t>
+  </si>
+  <si>
+    <t>307-320</t>
+  </si>
+  <si>
+    <t>322-351</t>
+  </si>
+  <si>
+    <t>354-395</t>
+  </si>
+  <si>
+    <t>397-423</t>
+  </si>
+  <si>
+    <t>425-433</t>
+  </si>
+  <si>
+    <t>434-447</t>
+  </si>
+  <si>
+    <t>449-467</t>
+  </si>
+  <si>
+    <t>469-490</t>
+  </si>
+  <si>
+    <t>492-560</t>
+  </si>
+  <si>
+    <t>582-639</t>
+  </si>
+  <si>
+    <t>src/main/java/tools/userStories.java</t>
+  </si>
+  <si>
+    <t>src/test/java/userStoriesTest.java</t>
   </si>
 </sst>
 </file>
@@ -2204,8 +2307,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView zoomScale="150" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -2245,7 +2348,7 @@
         <v>191</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E2" t="s">
         <v>199</v>
@@ -2262,7 +2365,7 @@
         <v>185</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E3" t="s">
         <v>203</v>
@@ -2279,7 +2382,7 @@
         <v>183</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E4" t="s">
         <v>201</v>
@@ -2324,7 +2427,7 @@
         <v>34</v>
       </c>
       <c r="E9" s="17" t="s">
-        <v>204</v>
+        <v>221</v>
       </c>
     </row>
   </sheetData>
@@ -2393,7 +2496,7 @@
         <v>195</v>
       </c>
       <c r="E2" s="18" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="14">
@@ -2410,7 +2513,7 @@
         <v>196</v>
       </c>
       <c r="E3" s="18" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="14">
@@ -2427,7 +2530,7 @@
         <v>196</v>
       </c>
       <c r="E4" s="18" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="14">
@@ -2444,7 +2547,7 @@
         <v>193</v>
       </c>
       <c r="E5" s="18" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="14">
@@ -2461,7 +2564,7 @@
         <v>192</v>
       </c>
       <c r="E6" s="18" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="14">
@@ -2478,7 +2581,7 @@
         <v>192</v>
       </c>
       <c r="E7" s="18" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="14">
@@ -2495,7 +2598,7 @@
         <v>193</v>
       </c>
       <c r="E8" s="18" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="14">
@@ -2512,7 +2615,7 @@
         <v>194</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="14">
@@ -2529,7 +2632,7 @@
         <v>194</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="14">
@@ -2546,7 +2649,7 @@
         <v>195</v>
       </c>
       <c r="E11" s="18" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="14">
@@ -2563,7 +2666,7 @@
         <v>196</v>
       </c>
       <c r="E12" s="18" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="14">
@@ -2580,7 +2683,7 @@
         <v>196</v>
       </c>
       <c r="E13" s="18" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="14">
@@ -2597,7 +2700,7 @@
         <v>195</v>
       </c>
       <c r="E14" s="18" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="14">
@@ -2614,7 +2717,7 @@
         <v>195</v>
       </c>
       <c r="E15" s="18" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="14">
@@ -2628,10 +2731,10 @@
         <v>81</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E16" s="18" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="14">
@@ -2645,10 +2748,10 @@
         <v>82</v>
       </c>
       <c r="D17" s="18" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E17" s="18" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="14">
@@ -2665,7 +2768,7 @@
         <v>194</v>
       </c>
       <c r="E18" s="18" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="14">
@@ -2682,7 +2785,7 @@
         <v>194</v>
       </c>
       <c r="E19" s="18" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="14">
@@ -2699,7 +2802,7 @@
         <v>193</v>
       </c>
       <c r="E20" s="18" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="14">
@@ -2716,7 +2819,7 @@
         <v>193</v>
       </c>
       <c r="E21" s="18" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="14">
@@ -2733,7 +2836,7 @@
         <v>194</v>
       </c>
       <c r="E22" s="18" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="14">
@@ -2747,10 +2850,10 @@
         <v>89</v>
       </c>
       <c r="D23" s="20" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E23" s="18" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="14">
@@ -2764,10 +2867,10 @@
         <v>90</v>
       </c>
       <c r="D24" s="20" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E24" s="18" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="14">
@@ -2784,7 +2887,7 @@
         <v>195</v>
       </c>
       <c r="E25" s="18" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="14">
@@ -2801,7 +2904,7 @@
         <v>196</v>
       </c>
       <c r="E26" s="18" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="14">
@@ -2818,7 +2921,7 @@
         <v>195</v>
       </c>
       <c r="E27" s="18" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="14">
@@ -2835,7 +2938,7 @@
         <v>194</v>
       </c>
       <c r="E28" s="18" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="14">
@@ -2852,7 +2955,7 @@
         <v>196</v>
       </c>
       <c r="E29" s="18" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="14">
@@ -2869,7 +2972,7 @@
         <v>193</v>
       </c>
       <c r="E30" s="18" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="14">
@@ -2886,7 +2989,7 @@
         <v>193</v>
       </c>
       <c r="E31" s="18" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -3317,7 +3420,7 @@
         <v>42320</v>
       </c>
       <c r="F6" s="9" t="e">
-        <f t="shared" ref="F5:F6" si="0">(D6-D5)/E6*60</f>
+        <f t="shared" ref="F6" si="0">(D6-D5)/E6*60</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -3333,8 +3436,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:Q23"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16:K18"/>
+    <sheetView topLeftCell="K1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -3348,12 +3451,12 @@
     <col min="7" max="7" width="8.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.33203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11" style="6" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.5" style="16" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="37" style="16" customWidth="1"/>
     <col min="12" max="12" width="19.1640625" style="16" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="13" style="16" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="1.83203125" style="16" customWidth="1"/>
-    <col min="15" max="15" width="10.1640625" style="16" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16.5" style="16" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="42.33203125" style="16" customWidth="1"/>
+    <col min="16" max="16" width="31.1640625" style="16" customWidth="1"/>
     <col min="17" max="17" width="10.1640625" style="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3415,13 +3518,13 @@
         <v>195</v>
       </c>
       <c r="D2" s="18" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E2" s="18">
         <v>40</v>
       </c>
       <c r="F2" s="18" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G2" s="18">
         <v>30</v>
@@ -3430,27 +3533,27 @@
         <v>40</v>
       </c>
       <c r="I2" s="20" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="J2" s="18"/>
       <c r="K2" s="20" t="s">
-        <v>213</v>
+        <v>285</v>
       </c>
       <c r="L2" s="20" t="s">
         <v>112</v>
       </c>
       <c r="M2" s="20" t="s">
-        <v>214</v>
+        <v>242</v>
       </c>
       <c r="N2" s="18"/>
       <c r="O2" s="20" t="s">
-        <v>215</v>
+        <v>286</v>
       </c>
       <c r="P2" s="20" t="s">
-        <v>216</v>
+        <v>251</v>
       </c>
       <c r="Q2" s="20" t="s">
-        <v>217</v>
+        <v>261</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="14">
@@ -3464,13 +3567,13 @@
         <v>196</v>
       </c>
       <c r="D3" s="18" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E3" s="18">
         <v>30</v>
       </c>
       <c r="F3" s="18" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G3" s="18">
         <v>9</v>
@@ -3479,27 +3582,27 @@
         <v>15</v>
       </c>
       <c r="I3" s="20" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="J3" s="18"/>
       <c r="K3" s="20" t="s">
-        <v>213</v>
+        <v>285</v>
       </c>
       <c r="L3" s="20" t="s">
         <v>113</v>
       </c>
       <c r="M3" s="20" t="s">
-        <v>218</v>
+        <v>243</v>
       </c>
       <c r="N3" s="18"/>
       <c r="O3" s="20" t="s">
-        <v>215</v>
+        <v>286</v>
       </c>
       <c r="P3" s="20" t="s">
-        <v>219</v>
+        <v>252</v>
       </c>
       <c r="Q3" s="20" t="s">
-        <v>220</v>
+        <v>262</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="14">
@@ -3513,13 +3616,13 @@
         <v>196</v>
       </c>
       <c r="D4" s="18" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E4" s="18">
         <v>30</v>
       </c>
       <c r="F4" s="18" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="G4" s="18">
         <v>7</v>
@@ -3528,27 +3631,27 @@
         <v>10</v>
       </c>
       <c r="I4" s="20" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="J4" s="18"/>
       <c r="K4" s="20" t="s">
-        <v>213</v>
+        <v>285</v>
       </c>
       <c r="L4" s="20" t="s">
         <v>114</v>
       </c>
       <c r="M4" s="20" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="N4" s="18"/>
       <c r="O4" s="20" t="s">
-        <v>215</v>
+        <v>286</v>
       </c>
       <c r="P4" s="20" t="s">
-        <v>223</v>
+        <v>253</v>
       </c>
       <c r="Q4" s="20" t="s">
-        <v>224</v>
+        <v>263</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="14">
@@ -3562,13 +3665,13 @@
         <v>193</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E5" s="18">
         <v>20</v>
       </c>
       <c r="F5" s="18" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="G5" s="18">
         <v>9</v>
@@ -3577,27 +3680,27 @@
         <v>15</v>
       </c>
       <c r="I5" s="20" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="J5" s="18"/>
       <c r="K5" s="20" t="s">
-        <v>213</v>
+        <v>285</v>
       </c>
       <c r="L5" s="20" t="s">
         <v>115</v>
       </c>
       <c r="M5" s="20" t="s">
-        <v>225</v>
+        <v>244</v>
       </c>
       <c r="N5" s="18"/>
       <c r="O5" s="20" t="s">
-        <v>215</v>
+        <v>286</v>
       </c>
       <c r="P5" s="20" t="s">
-        <v>226</v>
+        <v>254</v>
       </c>
       <c r="Q5" s="20" t="s">
-        <v>227</v>
+        <v>264</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="14">
@@ -3608,16 +3711,16 @@
         <v>70</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E6" s="18">
         <v>20</v>
       </c>
       <c r="F6" s="18" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="G6" s="18">
         <v>15</v>
@@ -3626,27 +3729,27 @@
         <v>10</v>
       </c>
       <c r="I6" s="20" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="J6" s="18"/>
       <c r="K6" s="20" t="s">
-        <v>213</v>
+        <v>285</v>
       </c>
       <c r="L6" s="20" t="s">
         <v>116</v>
       </c>
       <c r="M6" s="20" t="s">
-        <v>228</v>
+        <v>245</v>
       </c>
       <c r="N6" s="18"/>
       <c r="O6" s="20" t="s">
-        <v>215</v>
+        <v>286</v>
       </c>
       <c r="P6" s="20" t="s">
-        <v>229</v>
+        <v>255</v>
       </c>
       <c r="Q6" s="20" t="s">
-        <v>230</v>
+        <v>265</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="14">
@@ -3657,16 +3760,16 @@
         <v>71</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E7" s="18">
         <v>30</v>
       </c>
       <c r="F7" s="18" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="G7" s="18">
         <v>15</v>
@@ -3675,27 +3778,27 @@
         <v>10</v>
       </c>
       <c r="I7" s="20" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="J7" s="18"/>
       <c r="K7" s="20" t="s">
-        <v>213</v>
+        <v>285</v>
       </c>
       <c r="L7" s="20" t="s">
         <v>117</v>
       </c>
       <c r="M7" s="20" t="s">
-        <v>231</v>
+        <v>246</v>
       </c>
       <c r="N7" s="18"/>
       <c r="O7" s="20" t="s">
-        <v>215</v>
+        <v>286</v>
       </c>
       <c r="P7" s="20" t="s">
-        <v>232</v>
+        <v>256</v>
       </c>
       <c r="Q7" s="20" t="s">
-        <v>233</v>
+        <v>266</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="14">
@@ -3709,13 +3812,13 @@
         <v>193</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E8" s="18">
         <v>30</v>
       </c>
       <c r="F8" s="18" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="G8" s="18">
         <v>7</v>
@@ -3724,27 +3827,27 @@
         <v>15</v>
       </c>
       <c r="I8" s="20" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="J8" s="18"/>
       <c r="K8" s="20" t="s">
-        <v>213</v>
+        <v>285</v>
       </c>
       <c r="L8" s="20" t="s">
         <v>118</v>
       </c>
       <c r="M8" s="20" t="s">
-        <v>234</v>
+        <v>247</v>
       </c>
       <c r="N8" s="18"/>
       <c r="O8" s="20" t="s">
-        <v>215</v>
+        <v>286</v>
       </c>
       <c r="P8" s="20" t="s">
-        <v>235</v>
+        <v>257</v>
       </c>
       <c r="Q8" s="20" t="s">
-        <v>236</v>
+        <v>267</v>
       </c>
     </row>
     <row r="9" spans="1:17" ht="14">
@@ -3758,13 +3861,13 @@
         <v>194</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E9" s="18">
         <v>40</v>
       </c>
       <c r="F9" s="18" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G9" s="18">
         <v>20</v>
@@ -3773,27 +3876,27 @@
         <v>20</v>
       </c>
       <c r="I9" s="20" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="J9" s="18"/>
       <c r="K9" s="20" t="s">
-        <v>213</v>
+        <v>285</v>
       </c>
       <c r="L9" s="20" t="s">
         <v>119</v>
       </c>
       <c r="M9" s="20" t="s">
-        <v>237</v>
+        <v>248</v>
       </c>
       <c r="N9" s="18"/>
       <c r="O9" s="20" t="s">
-        <v>215</v>
+        <v>286</v>
       </c>
       <c r="P9" s="20" t="s">
-        <v>238</v>
+        <v>258</v>
       </c>
       <c r="Q9" s="20" t="s">
-        <v>239</v>
+        <v>268</v>
       </c>
     </row>
     <row r="10" spans="1:17" ht="14">
@@ -3807,13 +3910,13 @@
         <v>194</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E10" s="18">
         <v>40</v>
       </c>
       <c r="F10" s="18" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="G10" s="18">
         <v>31</v>
@@ -3822,27 +3925,27 @@
         <v>40</v>
       </c>
       <c r="I10" s="20" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="J10" s="18"/>
       <c r="K10" s="20" t="s">
-        <v>213</v>
+        <v>285</v>
       </c>
       <c r="L10" s="20" t="s">
         <v>120</v>
       </c>
       <c r="M10" s="20" t="s">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="N10" s="18"/>
       <c r="O10" s="20" t="s">
-        <v>215</v>
+        <v>286</v>
       </c>
       <c r="P10" s="20" t="s">
-        <v>241</v>
+        <v>259</v>
       </c>
       <c r="Q10" s="20" t="s">
-        <v>242</v>
+        <v>269</v>
       </c>
     </row>
     <row r="11" spans="1:17" ht="14">
@@ -3856,13 +3959,13 @@
         <v>195</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E11" s="18">
         <v>40</v>
       </c>
       <c r="F11" s="18" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G11" s="18">
         <v>48</v>
@@ -3871,27 +3974,27 @@
         <v>40</v>
       </c>
       <c r="I11" s="20" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="J11" s="18"/>
       <c r="K11" s="20" t="s">
-        <v>213</v>
+        <v>285</v>
       </c>
       <c r="L11" s="20" t="s">
         <v>121</v>
       </c>
       <c r="M11" s="20" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="N11" s="18"/>
       <c r="O11" s="20" t="s">
-        <v>215</v>
+        <v>286</v>
       </c>
       <c r="P11" s="20" t="s">
-        <v>244</v>
+        <v>260</v>
       </c>
       <c r="Q11" s="20" t="s">
-        <v>245</v>
+        <v>270</v>
       </c>
     </row>
     <row r="14" spans="1:17" ht="14">
@@ -3901,7 +4004,7 @@
     </row>
     <row r="15" spans="1:17" ht="14">
       <c r="B15" s="5" t="s">
-        <v>246</v>
+        <v>214</v>
       </c>
       <c r="I15" s="7"/>
     </row>
@@ -3910,7 +4013,7 @@
         <v>31</v>
       </c>
       <c r="D16" s="23" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
       <c r="E16" s="24"/>
       <c r="F16" s="24"/>
@@ -3922,7 +4025,7 @@
     </row>
     <row r="17" spans="2:11" ht="28">
       <c r="B17" s="21" t="s">
-        <v>247</v>
+        <v>215</v>
       </c>
       <c r="D17" s="24"/>
       <c r="E17" s="24"/>
@@ -3935,7 +4038,7 @@
     </row>
     <row r="18" spans="2:11" ht="14">
       <c r="B18" s="21" t="s">
-        <v>248</v>
+        <v>216</v>
       </c>
       <c r="D18" s="24"/>
       <c r="E18" s="24"/>
@@ -3953,17 +4056,17 @@
     </row>
     <row r="21" spans="2:11" ht="14">
       <c r="B21" s="21" t="s">
-        <v>249</v>
+        <v>217</v>
       </c>
     </row>
     <row r="22" spans="2:11" ht="14">
       <c r="B22" s="21" t="s">
-        <v>250</v>
+        <v>218</v>
       </c>
     </row>
     <row r="23" spans="2:11" ht="28">
       <c r="B23" s="21" t="s">
-        <v>251</v>
+        <v>219</v>
       </c>
     </row>
   </sheetData>
@@ -3978,15 +4081,20 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:Q23"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="O2" sqref="O2:O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
+  <cols>
+    <col min="2" max="2" width="21.6640625" customWidth="1"/>
+    <col min="11" max="11" width="45.6640625" customWidth="1"/>
+    <col min="15" max="16" width="23.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="28">
+    <row r="1" spans="1:17" ht="14">
       <c r="A1" s="4" t="s">
         <v>9</v>
       </c>
@@ -4014,8 +4122,27 @@
       <c r="I1" s="10" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" ht="14">
+      <c r="K1" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="L1" s="15" t="s">
+        <v>178</v>
+      </c>
+      <c r="M1" s="15" t="s">
+        <v>179</v>
+      </c>
+      <c r="N1" s="16"/>
+      <c r="O1" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="P1" s="15" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q1" s="15" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="14">
       <c r="A2" s="18" t="s">
         <v>122</v>
       </c>
@@ -4026,7 +4153,7 @@
         <v>196</v>
       </c>
       <c r="D2" s="18" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E2" s="18">
         <v>20</v>
@@ -4041,10 +4168,28 @@
         <v>60</v>
       </c>
       <c r="I2" s="20" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="14">
+        <v>211</v>
+      </c>
+      <c r="K2" s="20" t="s">
+        <v>285</v>
+      </c>
+      <c r="L2" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="M2" s="20" t="s">
+        <v>275</v>
+      </c>
+      <c r="O2" s="20" t="s">
+        <v>286</v>
+      </c>
+      <c r="P2" s="20" t="s">
+        <v>222</v>
+      </c>
+      <c r="Q2" s="20" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="14">
       <c r="A3" s="18" t="s">
         <v>123</v>
       </c>
@@ -4055,7 +4200,7 @@
         <v>196</v>
       </c>
       <c r="D3" s="18" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E3" s="18">
         <v>20</v>
@@ -4070,10 +4215,28 @@
         <v>120</v>
       </c>
       <c r="I3" s="20" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="14">
+        <v>211</v>
+      </c>
+      <c r="K3" s="20" t="s">
+        <v>285</v>
+      </c>
+      <c r="L3" s="20" t="s">
+        <v>123</v>
+      </c>
+      <c r="M3" s="20" t="s">
+        <v>276</v>
+      </c>
+      <c r="O3" s="20" t="s">
+        <v>286</v>
+      </c>
+      <c r="P3" s="20" t="s">
+        <v>223</v>
+      </c>
+      <c r="Q3" s="20" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="14">
       <c r="A4" s="18" t="s">
         <v>124</v>
       </c>
@@ -4084,7 +4247,7 @@
         <v>195</v>
       </c>
       <c r="D4" s="18" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E4" s="18">
         <v>30</v>
@@ -4099,10 +4262,28 @@
         <v>120</v>
       </c>
       <c r="I4" s="20" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="14">
+        <v>211</v>
+      </c>
+      <c r="K4" s="20" t="s">
+        <v>285</v>
+      </c>
+      <c r="L4" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="M4" s="20" t="s">
+        <v>277</v>
+      </c>
+      <c r="O4" s="20" t="s">
+        <v>286</v>
+      </c>
+      <c r="P4" s="20" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q4" s="20" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="14">
       <c r="A5" s="18" t="s">
         <v>125</v>
       </c>
@@ -4113,7 +4294,7 @@
         <v>195</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E5" s="18">
         <v>30</v>
@@ -4128,10 +4309,28 @@
         <v>60</v>
       </c>
       <c r="I5" s="20" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="14">
+        <v>211</v>
+      </c>
+      <c r="K5" s="20" t="s">
+        <v>285</v>
+      </c>
+      <c r="L5" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="M5" s="20" t="s">
+        <v>278</v>
+      </c>
+      <c r="O5" s="20" t="s">
+        <v>286</v>
+      </c>
+      <c r="P5" s="20" t="s">
+        <v>225</v>
+      </c>
+      <c r="Q5" s="20" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="14">
       <c r="A6" s="18" t="s">
         <v>126</v>
       </c>
@@ -4139,10 +4338,10 @@
         <v>81</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E6" s="18">
         <v>30</v>
@@ -4157,10 +4356,28 @@
         <v>30</v>
       </c>
       <c r="I6" s="20" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="14">
+        <v>211</v>
+      </c>
+      <c r="K6" s="20" t="s">
+        <v>285</v>
+      </c>
+      <c r="L6" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="M6" s="20" t="s">
+        <v>279</v>
+      </c>
+      <c r="O6" s="20" t="s">
+        <v>286</v>
+      </c>
+      <c r="P6" s="20" t="s">
+        <v>226</v>
+      </c>
+      <c r="Q6" s="20" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="14">
       <c r="A7" s="18" t="s">
         <v>127</v>
       </c>
@@ -4168,10 +4385,10 @@
         <v>82</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E7" s="18">
         <v>20</v>
@@ -4186,10 +4403,28 @@
         <v>30</v>
       </c>
       <c r="I7" s="20" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="14">
+        <v>211</v>
+      </c>
+      <c r="K7" s="20" t="s">
+        <v>285</v>
+      </c>
+      <c r="L7" s="20" t="s">
+        <v>127</v>
+      </c>
+      <c r="M7" s="20" t="s">
+        <v>280</v>
+      </c>
+      <c r="O7" s="20" t="s">
+        <v>286</v>
+      </c>
+      <c r="P7" s="20" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q7" s="20" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="14">
       <c r="A8" s="18" t="s">
         <v>128</v>
       </c>
@@ -4200,7 +4435,7 @@
         <v>194</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E8" s="18">
         <v>20</v>
@@ -4215,10 +4450,28 @@
         <v>120</v>
       </c>
       <c r="I8" s="20" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="14">
+        <v>211</v>
+      </c>
+      <c r="K8" s="20" t="s">
+        <v>285</v>
+      </c>
+      <c r="L8" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="M8" s="20" t="s">
+        <v>281</v>
+      </c>
+      <c r="O8" s="20" t="s">
+        <v>286</v>
+      </c>
+      <c r="P8" s="20" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q8" s="20" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="14">
       <c r="A9" s="18" t="s">
         <v>129</v>
       </c>
@@ -4229,7 +4482,7 @@
         <v>194</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E9" s="18">
         <v>20</v>
@@ -4244,10 +4497,28 @@
         <v>150</v>
       </c>
       <c r="I9" s="20" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="14">
+        <v>211</v>
+      </c>
+      <c r="K9" s="20" t="s">
+        <v>285</v>
+      </c>
+      <c r="L9" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="M9" s="20" t="s">
+        <v>282</v>
+      </c>
+      <c r="O9" s="20" t="s">
+        <v>286</v>
+      </c>
+      <c r="P9" s="20" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q9" s="20" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="14">
       <c r="A10" s="18" t="s">
         <v>130</v>
       </c>
@@ -4258,7 +4529,7 @@
         <v>193</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E10" s="18">
         <v>20</v>
@@ -4273,10 +4544,28 @@
         <v>180</v>
       </c>
       <c r="I10" s="20" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="14">
+        <v>211</v>
+      </c>
+      <c r="K10" s="20" t="s">
+        <v>285</v>
+      </c>
+      <c r="L10" s="20" t="s">
+        <v>130</v>
+      </c>
+      <c r="M10" s="20" t="s">
+        <v>283</v>
+      </c>
+      <c r="O10" s="20" t="s">
+        <v>286</v>
+      </c>
+      <c r="P10" s="20" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q10" s="20" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="14">
       <c r="A11" s="18" t="s">
         <v>131</v>
       </c>
@@ -4287,7 +4576,7 @@
         <v>193</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E11" s="18">
         <v>20</v>
@@ -4302,10 +4591,28 @@
         <v>180</v>
       </c>
       <c r="I11" s="20" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
+        <v>211</v>
+      </c>
+      <c r="K11" s="20" t="s">
+        <v>285</v>
+      </c>
+      <c r="L11" s="20" t="s">
+        <v>131</v>
+      </c>
+      <c r="M11" s="20" t="s">
+        <v>284</v>
+      </c>
+      <c r="O11" s="20" t="s">
+        <v>286</v>
+      </c>
+      <c r="P11" s="20" t="s">
+        <v>231</v>
+      </c>
+      <c r="Q11" s="20" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="G12">
         <f>SUM(G2:G11)</f>
         <v>343</v>
@@ -4313,6 +4620,54 @@
       <c r="H12">
         <f>SUM(H2:H11)</f>
         <v>1050</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" ht="14">
+      <c r="B14" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" ht="14">
+      <c r="B15" s="5" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" ht="14">
+      <c r="B16" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" ht="56">
+      <c r="B17" s="21" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" ht="14">
+      <c r="B18" s="21" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2">
+      <c r="B19" s="1"/>
+    </row>
+    <row r="20" spans="2:2" ht="14">
+      <c r="B20" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" ht="42">
+      <c r="B21" s="21" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" ht="42">
+      <c r="B22" s="21" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" ht="28">
+      <c r="B23" s="21" t="s">
+        <v>273</v>
       </c>
     </row>
   </sheetData>
@@ -4335,7 +4690,7 @@
     <col min="2" max="2" width="26.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="28">
+    <row r="1" spans="1:9" ht="14">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
@@ -4375,7 +4730,7 @@
         <v>194</v>
       </c>
       <c r="D2" s="20" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E2">
         <v>20</v>
@@ -4392,10 +4747,10 @@
         <v>89</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D3" s="20" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E3">
         <v>40</v>
@@ -4412,10 +4767,10 @@
         <v>90</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E4">
         <v>40</v>
@@ -4435,7 +4790,7 @@
         <v>195</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E5">
         <v>30</v>
@@ -4455,7 +4810,7 @@
         <v>196</v>
       </c>
       <c r="D6" s="20" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E6">
         <v>50</v>
@@ -4475,7 +4830,7 @@
         <v>195</v>
       </c>
       <c r="D7" s="20" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E7">
         <v>20</v>
@@ -4495,7 +4850,7 @@
         <v>194</v>
       </c>
       <c r="D8" s="20" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E8">
         <v>80</v>
@@ -4515,7 +4870,7 @@
         <v>196</v>
       </c>
       <c r="D9" s="20" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E9">
         <v>20</v>
@@ -4535,7 +4890,7 @@
         <v>193</v>
       </c>
       <c r="D10" s="20" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E10">
         <v>15</v>
@@ -4555,7 +4910,7 @@
         <v>193</v>
       </c>
       <c r="D11" s="20" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E11">
         <v>15</v>

--- a/TeamReport.xlsx
+++ b/TeamReport.xlsx
@@ -5,12 +5,12 @@
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michaelwen/Documents/555/homework/4/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michaelwen/Documents/555/homework/CS-SSW-555-Group-Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{095ADB0B-366C-2245-B3CD-ECEF5F30A72F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBB609E6-A58A-AF46-8430-F406662FDF36}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35940" yWindow="12940" windowWidth="28540" windowHeight="22700" tabRatio="500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="667" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="784" uniqueCount="321">
   <si>
     <t>Date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -935,6 +935,108 @@
   </si>
   <si>
     <t>src/test/java/userStoriesTest.java</t>
+  </si>
+  <si>
+    <t>bug fix.</t>
+  </si>
+  <si>
+    <t>us21</t>
+  </si>
+  <si>
+    <t>us22</t>
+  </si>
+  <si>
+    <t>us23</t>
+  </si>
+  <si>
+    <t>us24</t>
+  </si>
+  <si>
+    <t>us25</t>
+  </si>
+  <si>
+    <t>us26</t>
+  </si>
+  <si>
+    <t>us27</t>
+  </si>
+  <si>
+    <t>us28</t>
+  </si>
+  <si>
+    <t>us29</t>
+  </si>
+  <si>
+    <t>us30</t>
+  </si>
+  <si>
+    <t>20-34</t>
+  </si>
+  <si>
+    <t>21-29</t>
+  </si>
+  <si>
+    <t>TestUS21T &amp; F</t>
+  </si>
+  <si>
+    <t>TestUS22T &amp; F</t>
+  </si>
+  <si>
+    <t>TestUS23T &amp; F</t>
+  </si>
+  <si>
+    <t>TestUS24T &amp; F</t>
+  </si>
+  <si>
+    <t>TestUS25T &amp; F</t>
+  </si>
+  <si>
+    <t>TestUS26T &amp; F</t>
+  </si>
+  <si>
+    <t>TestUS27T &amp; F</t>
+  </si>
+  <si>
+    <t>TestUS28T &amp; F</t>
+  </si>
+  <si>
+    <t>TestUS29T &amp; F</t>
+  </si>
+  <si>
+    <t>TestUS30T &amp; F</t>
+  </si>
+  <si>
+    <t>734-769</t>
+  </si>
+  <si>
+    <t>src/main/java/tools/us21.java</t>
+  </si>
+  <si>
+    <t>src/main/java/tools/us22.java</t>
+  </si>
+  <si>
+    <t>src/main/java/tools/us23.java</t>
+  </si>
+  <si>
+    <t>src/main/java/tools/us24.java</t>
+  </si>
+  <si>
+    <t>src/main/java/tools/us25.java</t>
+  </si>
+  <si>
+    <t>src/main/java/tools/us26.java</t>
+  </si>
+  <si>
+    <t>src/main/java/tools/us27.java</t>
+  </si>
+  <si>
+    <t>src/main/java/tools/us28.java</t>
+  </si>
+  <si>
+    <t>src/main/java/tools/us29.java</t>
+  </si>
+  <si>
+    <t>src/main/java/tools/us30.java</t>
   </si>
 </sst>
 </file>
@@ -1094,7 +1196,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1138,6 +1240,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="66">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -2452,8 +2555,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScale="150" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="150" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -2836,7 +2939,7 @@
         <v>194</v>
       </c>
       <c r="E22" s="18" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="14">
@@ -2853,7 +2956,7 @@
         <v>209</v>
       </c>
       <c r="E23" s="18" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="14">
@@ -2870,7 +2973,7 @@
         <v>209</v>
       </c>
       <c r="E24" s="18" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="14">
@@ -2887,7 +2990,7 @@
         <v>195</v>
       </c>
       <c r="E25" s="18" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="14">
@@ -2904,7 +3007,7 @@
         <v>196</v>
       </c>
       <c r="E26" s="18" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="14">
@@ -2921,7 +3024,7 @@
         <v>195</v>
       </c>
       <c r="E27" s="18" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="14">
@@ -2938,7 +3041,7 @@
         <v>194</v>
       </c>
       <c r="E28" s="18" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="14">
@@ -2955,7 +3058,7 @@
         <v>196</v>
       </c>
       <c r="E29" s="18" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="14">
@@ -2972,7 +3075,7 @@
         <v>193</v>
       </c>
       <c r="E30" s="18" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="14">
@@ -2989,10 +3092,10 @@
         <v>193</v>
       </c>
       <c r="E31" s="18" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="14">
       <c r="A32">
         <v>4</v>
       </c>
@@ -3002,8 +3105,14 @@
       <c r="C32" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="33" spans="1:3">
+      <c r="D32" s="20" t="s">
+        <v>194</v>
+      </c>
+      <c r="E32" s="18" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="14">
       <c r="A33">
         <v>4</v>
       </c>
@@ -3013,8 +3122,14 @@
       <c r="C33" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="34" spans="1:3">
+      <c r="D33" s="20" t="s">
+        <v>194</v>
+      </c>
+      <c r="E33" s="18" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="14">
       <c r="A34">
         <v>4</v>
       </c>
@@ -3024,8 +3139,14 @@
       <c r="C34" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="35" spans="1:3">
+      <c r="D34" s="20" t="s">
+        <v>195</v>
+      </c>
+      <c r="E34" s="18" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="14">
       <c r="A35">
         <v>4</v>
       </c>
@@ -3035,8 +3156,14 @@
       <c r="C35" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="36" spans="1:3">
+      <c r="D35" s="20" t="s">
+        <v>195</v>
+      </c>
+      <c r="E35" s="18" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="14">
       <c r="A36">
         <v>4</v>
       </c>
@@ -3046,8 +3173,14 @@
       <c r="C36" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="37" spans="1:3">
+      <c r="D36" s="20" t="s">
+        <v>196</v>
+      </c>
+      <c r="E36" s="18" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="14">
       <c r="A37">
         <v>4</v>
       </c>
@@ -3057,8 +3190,14 @@
       <c r="C37" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="38" spans="1:3">
+      <c r="D37" s="20" t="s">
+        <v>196</v>
+      </c>
+      <c r="E37" s="18" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="14">
       <c r="A38">
         <v>4</v>
       </c>
@@ -3068,8 +3207,14 @@
       <c r="C38" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="39" spans="1:3">
+      <c r="D38" s="20" t="s">
+        <v>193</v>
+      </c>
+      <c r="E38" s="18" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="14">
       <c r="A39">
         <v>4</v>
       </c>
@@ -3079,19 +3224,31 @@
       <c r="C39" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="40" spans="1:3">
+      <c r="D39" s="20" t="s">
+        <v>193</v>
+      </c>
+      <c r="E39" s="18" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="14">
       <c r="A40">
         <v>4</v>
       </c>
       <c r="B40" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="C40" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
+        <v>100</v>
+      </c>
+      <c r="D40" s="20" t="s">
+        <v>209</v>
+      </c>
+      <c r="E40" s="18" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="14">
       <c r="A41">
         <v>4</v>
       </c>
@@ -3100,6 +3257,12 @@
       </c>
       <c r="C41" t="s">
         <v>109</v>
+      </c>
+      <c r="D41" s="20" t="s">
+        <v>209</v>
+      </c>
+      <c r="E41" s="18" t="s">
+        <v>207</v>
       </c>
     </row>
   </sheetData>
@@ -4083,8 +4246,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:Q23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2:O11"/>
+    <sheetView topLeftCell="J1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1:K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -4679,18 +4842,23 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:Q20"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView topLeftCell="E1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="O1" sqref="O1:O1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
   <cols>
     <col min="2" max="2" width="26.83203125" customWidth="1"/>
+    <col min="11" max="11" width="40.33203125" customWidth="1"/>
+    <col min="13" max="13" width="35.5" customWidth="1"/>
+    <col min="14" max="14" width="23.33203125" customWidth="1"/>
+    <col min="15" max="15" width="27.6640625" customWidth="1"/>
+    <col min="16" max="16" width="31.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="14">
+    <row r="1" spans="1:17" ht="14">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
@@ -4718,8 +4886,27 @@
       <c r="I1" s="10" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="K1" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="L1" s="15" t="s">
+        <v>178</v>
+      </c>
+      <c r="M1" s="15" t="s">
+        <v>179</v>
+      </c>
+      <c r="N1" s="16"/>
+      <c r="O1" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="P1" s="15" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q1" s="15" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" t="s">
         <v>132</v>
       </c>
@@ -4738,8 +4925,35 @@
       <c r="F2">
         <v>60</v>
       </c>
-    </row>
-    <row r="3" spans="1:9">
+      <c r="G2">
+        <v>88</v>
+      </c>
+      <c r="H2">
+        <v>30</v>
+      </c>
+      <c r="I2" s="20" t="s">
+        <v>211</v>
+      </c>
+      <c r="K2" s="20" t="s">
+        <v>311</v>
+      </c>
+      <c r="L2" s="20" t="s">
+        <v>288</v>
+      </c>
+      <c r="M2" s="25" t="s">
+        <v>298</v>
+      </c>
+      <c r="O2" s="20" t="s">
+        <v>286</v>
+      </c>
+      <c r="P2" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="Q2" s="20" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" t="s">
         <v>133</v>
       </c>
@@ -4758,8 +4972,22 @@
       <c r="F3">
         <v>60</v>
       </c>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="K3" s="20" t="s">
+        <v>312</v>
+      </c>
+      <c r="L3" s="20" t="s">
+        <v>289</v>
+      </c>
+      <c r="M3" s="25"/>
+      <c r="O3" s="20" t="s">
+        <v>286</v>
+      </c>
+      <c r="P3" s="20" t="s">
+        <v>301</v>
+      </c>
+      <c r="Q3" s="20"/>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" t="s">
         <v>134</v>
       </c>
@@ -4778,8 +5006,22 @@
       <c r="F4">
         <v>60</v>
       </c>
-    </row>
-    <row r="5" spans="1:9">
+      <c r="K4" s="20" t="s">
+        <v>313</v>
+      </c>
+      <c r="L4" s="20" t="s">
+        <v>290</v>
+      </c>
+      <c r="M4" s="25"/>
+      <c r="O4" s="20" t="s">
+        <v>286</v>
+      </c>
+      <c r="P4" s="20" t="s">
+        <v>302</v>
+      </c>
+      <c r="Q4" s="20"/>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" t="s">
         <v>135</v>
       </c>
@@ -4798,8 +5040,22 @@
       <c r="F5">
         <v>60</v>
       </c>
-    </row>
-    <row r="6" spans="1:9">
+      <c r="K5" s="20" t="s">
+        <v>314</v>
+      </c>
+      <c r="L5" s="20" t="s">
+        <v>291</v>
+      </c>
+      <c r="M5" s="25"/>
+      <c r="O5" s="20" t="s">
+        <v>286</v>
+      </c>
+      <c r="P5" s="20" t="s">
+        <v>303</v>
+      </c>
+      <c r="Q5" s="20"/>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" t="s">
         <v>136</v>
       </c>
@@ -4818,8 +5074,22 @@
       <c r="F6">
         <v>60</v>
       </c>
-    </row>
-    <row r="7" spans="1:9">
+      <c r="K6" s="20" t="s">
+        <v>315</v>
+      </c>
+      <c r="L6" s="20" t="s">
+        <v>292</v>
+      </c>
+      <c r="M6" s="25"/>
+      <c r="O6" s="20" t="s">
+        <v>286</v>
+      </c>
+      <c r="P6" s="20" t="s">
+        <v>304</v>
+      </c>
+      <c r="Q6" s="20"/>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" t="s">
         <v>137</v>
       </c>
@@ -4838,8 +5108,22 @@
       <c r="F7">
         <v>60</v>
       </c>
-    </row>
-    <row r="8" spans="1:9">
+      <c r="K7" s="20" t="s">
+        <v>316</v>
+      </c>
+      <c r="L7" s="20" t="s">
+        <v>293</v>
+      </c>
+      <c r="M7" s="25"/>
+      <c r="O7" s="20" t="s">
+        <v>286</v>
+      </c>
+      <c r="P7" s="20" t="s">
+        <v>305</v>
+      </c>
+      <c r="Q7" s="20"/>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" t="s">
         <v>138</v>
       </c>
@@ -4858,8 +5142,33 @@
       <c r="F8">
         <v>60</v>
       </c>
-    </row>
-    <row r="9" spans="1:9">
+      <c r="G8">
+        <v>92</v>
+      </c>
+      <c r="H8">
+        <v>40</v>
+      </c>
+      <c r="I8" s="20" t="s">
+        <v>211</v>
+      </c>
+      <c r="K8" s="20" t="s">
+        <v>317</v>
+      </c>
+      <c r="L8" s="20" t="s">
+        <v>294</v>
+      </c>
+      <c r="M8" s="25" t="s">
+        <v>299</v>
+      </c>
+      <c r="O8" s="20" t="s">
+        <v>286</v>
+      </c>
+      <c r="P8" s="20" t="s">
+        <v>306</v>
+      </c>
+      <c r="Q8" s="20"/>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" t="s">
         <v>139</v>
       </c>
@@ -4878,8 +5187,22 @@
       <c r="F9">
         <v>60</v>
       </c>
-    </row>
-    <row r="10" spans="1:9">
+      <c r="K9" s="20" t="s">
+        <v>318</v>
+      </c>
+      <c r="L9" s="20" t="s">
+        <v>295</v>
+      </c>
+      <c r="M9" s="25"/>
+      <c r="O9" s="20" t="s">
+        <v>286</v>
+      </c>
+      <c r="P9" s="20" t="s">
+        <v>307</v>
+      </c>
+      <c r="Q9" s="20"/>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" t="s">
         <v>140</v>
       </c>
@@ -4898,8 +5221,22 @@
       <c r="F10">
         <v>120</v>
       </c>
-    </row>
-    <row r="11" spans="1:9">
+      <c r="K10" s="20" t="s">
+        <v>319</v>
+      </c>
+      <c r="L10" s="20" t="s">
+        <v>296</v>
+      </c>
+      <c r="M10" s="25"/>
+      <c r="O10" s="20" t="s">
+        <v>286</v>
+      </c>
+      <c r="P10" s="20" t="s">
+        <v>308</v>
+      </c>
+      <c r="Q10" s="20"/>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" t="s">
         <v>141</v>
       </c>
@@ -4917,6 +5254,53 @@
       </c>
       <c r="F11">
         <v>120</v>
+      </c>
+      <c r="K11" s="20" t="s">
+        <v>320</v>
+      </c>
+      <c r="L11" s="20" t="s">
+        <v>297</v>
+      </c>
+      <c r="M11" s="25"/>
+      <c r="O11" s="20" t="s">
+        <v>286</v>
+      </c>
+      <c r="P11" s="20" t="s">
+        <v>309</v>
+      </c>
+      <c r="Q11" s="20"/>
+    </row>
+    <row r="14" spans="1:17" ht="14">
+      <c r="B14" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" ht="14">
+      <c r="B15" s="21" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" ht="14">
+      <c r="B16" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" ht="14">
+      <c r="B17" s="21" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" ht="14">
+      <c r="B18" s="21" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2">
+      <c r="B19" s="1"/>
+    </row>
+    <row r="20" spans="2:2" ht="14">
+      <c r="B20" s="5" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -4927,10 +5311,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -4962,6 +5346,146 @@
       </c>
       <c r="I1" s="10" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="14">
+      <c r="A2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>194</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="14">
+      <c r="A3" t="s">
+        <v>143</v>
+      </c>
+      <c r="B3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>194</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="14">
+      <c r="A4" t="s">
+        <v>145</v>
+      </c>
+      <c r="B4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>195</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="14">
+      <c r="A5" t="s">
+        <v>146</v>
+      </c>
+      <c r="B5" t="s">
+        <v>101</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>195</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="14">
+      <c r="A6" t="s">
+        <v>147</v>
+      </c>
+      <c r="B6" t="s">
+        <v>102</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>196</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="14">
+      <c r="A7" t="s">
+        <v>148</v>
+      </c>
+      <c r="B7" t="s">
+        <v>103</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>196</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="14">
+      <c r="A8" t="s">
+        <v>149</v>
+      </c>
+      <c r="B8" t="s">
+        <v>104</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>193</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="14">
+      <c r="A9" t="s">
+        <v>150</v>
+      </c>
+      <c r="B9" t="s">
+        <v>105</v>
+      </c>
+      <c r="C9" s="20" t="s">
+        <v>193</v>
+      </c>
+      <c r="D9" s="18" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="14">
+      <c r="A10" t="s">
+        <v>144</v>
+      </c>
+      <c r="B10" t="s">
+        <v>100</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>209</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="14">
+      <c r="A11" t="s">
+        <v>153</v>
+      </c>
+      <c r="B11" t="s">
+        <v>109</v>
+      </c>
+      <c r="C11" s="20" t="s">
+        <v>209</v>
+      </c>
+      <c r="D11" s="18" t="s">
+        <v>207</v>
       </c>
     </row>
   </sheetData>
@@ -4974,8 +5498,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:C43"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34:B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -5219,7 +5743,7 @@
       <c r="A22" t="s">
         <v>132</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="20" t="s">
         <v>86</v>
       </c>
       <c r="C22" s="12" t="s">
@@ -5263,7 +5787,7 @@
       <c r="A26" t="s">
         <v>136</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="20" t="s">
         <v>92</v>
       </c>
       <c r="C26" s="12" t="s">

--- a/TeamReport.xlsx
+++ b/TeamReport.xlsx
@@ -5,12 +5,12 @@
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michaelwen/Documents/555/homework/CS-SSW-555-Group-Project/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michaelwen/Documents/555/homework/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBB609E6-A58A-AF46-8430-F406662FDF36}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2B32972-7539-5149-B7F5-1BD8901056B2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="33600" yWindow="2520" windowWidth="30080" windowHeight="33380" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="784" uniqueCount="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="811" uniqueCount="342">
   <si>
     <t>Date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -937,9 +937,6 @@
     <t>src/test/java/userStoriesTest.java</t>
   </si>
   <si>
-    <t>bug fix.</t>
-  </si>
-  <si>
     <t>us21</t>
   </si>
   <si>
@@ -1037,6 +1034,72 @@
   </si>
   <si>
     <t>src/main/java/tools/us30.java</t>
+  </si>
+  <si>
+    <t>21-67</t>
+  </si>
+  <si>
+    <t>21-58</t>
+  </si>
+  <si>
+    <t>23-68</t>
+  </si>
+  <si>
+    <t>25-51</t>
+  </si>
+  <si>
+    <t>23-142</t>
+  </si>
+  <si>
+    <t>26-75</t>
+  </si>
+  <si>
+    <t>771-795</t>
+  </si>
+  <si>
+    <t>797-820</t>
+  </si>
+  <si>
+    <t>822-847</t>
+  </si>
+  <si>
+    <t>851-875</t>
+  </si>
+  <si>
+    <t>877-903</t>
+  </si>
+  <si>
+    <t>905-937</t>
+  </si>
+  <si>
+    <t>939-965</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>more pair programming, make sue the structure of the program is good, don't change it to much</t>
+  </si>
+  <si>
+    <t>testing bugs and fix it.</t>
+  </si>
+  <si>
+    <t>using one test file to test all the  stories</t>
+  </si>
+  <si>
+    <t>using the wrong user story name to write the code</t>
+  </si>
+  <si>
+    <t>21-43</t>
+  </si>
+  <si>
+    <t>21-28</t>
+  </si>
+  <si>
+    <t>995-1021</t>
+  </si>
+  <si>
+    <t>967-993</t>
   </si>
 </sst>
 </file>
@@ -1236,11 +1299,11 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="66">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1521,6 +1584,9 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2555,7 +2621,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="150" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="150" workbookViewId="0">
       <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
@@ -3276,8 +3342,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" zoomScale="150" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView zoomScale="150" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -3429,14 +3495,14 @@
         <v>10</v>
       </c>
       <c r="E18" s="13">
-        <v>0</v>
+        <v>2050</v>
       </c>
       <c r="F18" s="14">
-        <v>0</v>
-      </c>
-      <c r="G18" s="9" t="e">
+        <v>2295</v>
+      </c>
+      <c r="G18" s="9">
         <f>(E18-E17)/F18*60</f>
-        <v>#DIV/0!</v>
+        <v>20.601307189542482</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -3475,8 +3541,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -3556,7 +3622,7 @@
         <v>20</v>
       </c>
       <c r="C4">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D4">
         <v>1262</v>
@@ -3573,9 +3639,21 @@
       <c r="A5" s="19">
         <v>42306</v>
       </c>
-      <c r="F5" s="9" t="e">
+      <c r="B5">
+        <v>10</v>
+      </c>
+      <c r="C5">
+        <v>10</v>
+      </c>
+      <c r="D5">
+        <v>2050</v>
+      </c>
+      <c r="E5">
+        <v>2295</v>
+      </c>
+      <c r="F5" s="9">
         <f>(D5-D4)/E5*60</f>
-        <v>#DIV/0!</v>
+        <v>20.601307189542482</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3599,7 +3677,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:Q23"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" zoomScale="150" workbookViewId="0">
+    <sheetView topLeftCell="L1" zoomScale="150" workbookViewId="0">
       <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
@@ -4175,42 +4253,42 @@
       <c r="B16" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D16" s="23" t="s">
+      <c r="D16" s="24" t="s">
         <v>220</v>
       </c>
-      <c r="E16" s="24"/>
-      <c r="F16" s="24"/>
-      <c r="G16" s="24"/>
-      <c r="H16" s="24"/>
-      <c r="I16" s="24"/>
-      <c r="J16" s="24"/>
-      <c r="K16" s="24"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="25"/>
+      <c r="I16" s="25"/>
+      <c r="J16" s="25"/>
+      <c r="K16" s="25"/>
     </row>
     <row r="17" spans="2:11" ht="28">
       <c r="B17" s="21" t="s">
         <v>215</v>
       </c>
-      <c r="D17" s="24"/>
-      <c r="E17" s="24"/>
-      <c r="F17" s="24"/>
-      <c r="G17" s="24"/>
-      <c r="H17" s="24"/>
-      <c r="I17" s="24"/>
-      <c r="J17" s="24"/>
-      <c r="K17" s="24"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="25"/>
+      <c r="I17" s="25"/>
+      <c r="J17" s="25"/>
+      <c r="K17" s="25"/>
     </row>
     <row r="18" spans="2:11" ht="14">
       <c r="B18" s="21" t="s">
         <v>216</v>
       </c>
-      <c r="D18" s="24"/>
-      <c r="E18" s="24"/>
-      <c r="F18" s="24"/>
-      <c r="G18" s="24"/>
-      <c r="H18" s="24"/>
-      <c r="I18" s="24"/>
-      <c r="J18" s="24"/>
-      <c r="K18" s="24"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="25"/>
+      <c r="I18" s="25"/>
+      <c r="J18" s="25"/>
+      <c r="K18" s="25"/>
     </row>
     <row r="20" spans="2:11" ht="14">
       <c r="B20" s="5" t="s">
@@ -4246,7 +4324,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:Q23"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" zoomScale="150" workbookViewId="0">
+    <sheetView topLeftCell="K1" zoomScale="150" workbookViewId="0">
       <selection activeCell="J1" sqref="J1:K11"/>
     </sheetView>
   </sheetViews>
@@ -4842,10 +4920,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:Q20"/>
+  <dimension ref="A1:Q22"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="O1" sqref="O1:O1048576"/>
+    <sheetView zoomScale="150" workbookViewId="0">
+      <selection activeCell="H44" sqref="H44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -4917,7 +4995,7 @@
         <v>194</v>
       </c>
       <c r="D2" s="20" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E2">
         <v>20</v>
@@ -4935,22 +5013,22 @@
         <v>211</v>
       </c>
       <c r="K2" s="20" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="L2" s="20" t="s">
-        <v>288</v>
-      </c>
-      <c r="M2" s="25" t="s">
-        <v>298</v>
+        <v>287</v>
+      </c>
+      <c r="M2" s="23" t="s">
+        <v>297</v>
       </c>
       <c r="O2" s="20" t="s">
         <v>286</v>
       </c>
       <c r="P2" s="20" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="Q2" s="20" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -4964,7 +5042,7 @@
         <v>209</v>
       </c>
       <c r="D3" s="20" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E3">
         <v>40</v>
@@ -4972,20 +5050,33 @@
       <c r="F3">
         <v>60</v>
       </c>
+      <c r="G3">
+        <v>65</v>
+      </c>
+      <c r="H3">
+        <v>60</v>
+      </c>
+      <c r="I3" s="20" t="s">
+        <v>211</v>
+      </c>
       <c r="K3" s="20" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="L3" s="20" t="s">
-        <v>289</v>
-      </c>
-      <c r="M3" s="25"/>
+        <v>288</v>
+      </c>
+      <c r="M3" s="23" t="s">
+        <v>320</v>
+      </c>
       <c r="O3" s="20" t="s">
         <v>286</v>
       </c>
       <c r="P3" s="20" t="s">
-        <v>301</v>
-      </c>
-      <c r="Q3" s="20"/>
+        <v>300</v>
+      </c>
+      <c r="Q3" s="20" t="s">
+        <v>326</v>
+      </c>
     </row>
     <row r="4" spans="1:17">
       <c r="A4" t="s">
@@ -4998,7 +5089,7 @@
         <v>209</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E4">
         <v>40</v>
@@ -5006,20 +5097,33 @@
       <c r="F4">
         <v>60</v>
       </c>
+      <c r="G4">
+        <v>70</v>
+      </c>
+      <c r="H4">
+        <v>60</v>
+      </c>
+      <c r="I4" s="20" t="s">
+        <v>211</v>
+      </c>
       <c r="K4" s="20" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="L4" s="20" t="s">
-        <v>290</v>
-      </c>
-      <c r="M4" s="25"/>
+        <v>289</v>
+      </c>
+      <c r="M4" s="23" t="s">
+        <v>321</v>
+      </c>
       <c r="O4" s="20" t="s">
         <v>286</v>
       </c>
       <c r="P4" s="20" t="s">
-        <v>302</v>
-      </c>
-      <c r="Q4" s="20"/>
+        <v>301</v>
+      </c>
+      <c r="Q4" s="20" t="s">
+        <v>327</v>
+      </c>
     </row>
     <row r="5" spans="1:17">
       <c r="A5" t="s">
@@ -5032,7 +5136,7 @@
         <v>195</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E5">
         <v>30</v>
@@ -5040,20 +5144,33 @@
       <c r="F5">
         <v>60</v>
       </c>
+      <c r="G5">
+        <v>60</v>
+      </c>
+      <c r="H5">
+        <v>60</v>
+      </c>
+      <c r="I5" s="20" t="s">
+        <v>211</v>
+      </c>
       <c r="K5" s="20" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="L5" s="20" t="s">
-        <v>291</v>
-      </c>
-      <c r="M5" s="25"/>
+        <v>290</v>
+      </c>
+      <c r="M5" s="23" t="s">
+        <v>322</v>
+      </c>
       <c r="O5" s="20" t="s">
         <v>286</v>
       </c>
       <c r="P5" s="20" t="s">
-        <v>303</v>
-      </c>
-      <c r="Q5" s="20"/>
+        <v>302</v>
+      </c>
+      <c r="Q5" s="20" t="s">
+        <v>328</v>
+      </c>
     </row>
     <row r="6" spans="1:17">
       <c r="A6" t="s">
@@ -5066,7 +5183,7 @@
         <v>196</v>
       </c>
       <c r="D6" s="20" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E6">
         <v>50</v>
@@ -5074,20 +5191,33 @@
       <c r="F6">
         <v>60</v>
       </c>
+      <c r="G6">
+        <v>51</v>
+      </c>
+      <c r="H6">
+        <v>70</v>
+      </c>
+      <c r="I6" s="20" t="s">
+        <v>211</v>
+      </c>
       <c r="K6" s="20" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="L6" s="20" t="s">
-        <v>292</v>
-      </c>
-      <c r="M6" s="25"/>
+        <v>291</v>
+      </c>
+      <c r="M6" s="23" t="s">
+        <v>323</v>
+      </c>
       <c r="O6" s="20" t="s">
         <v>286</v>
       </c>
       <c r="P6" s="20" t="s">
-        <v>304</v>
-      </c>
-      <c r="Q6" s="20"/>
+        <v>303</v>
+      </c>
+      <c r="Q6" s="20" t="s">
+        <v>329</v>
+      </c>
     </row>
     <row r="7" spans="1:17">
       <c r="A7" t="s">
@@ -5100,7 +5230,7 @@
         <v>195</v>
       </c>
       <c r="D7" s="20" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E7">
         <v>20</v>
@@ -5108,20 +5238,33 @@
       <c r="F7">
         <v>60</v>
       </c>
+      <c r="G7">
+        <v>140</v>
+      </c>
+      <c r="H7">
+        <v>90</v>
+      </c>
+      <c r="I7" s="20" t="s">
+        <v>211</v>
+      </c>
       <c r="K7" s="20" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="L7" s="20" t="s">
-        <v>293</v>
-      </c>
-      <c r="M7" s="25"/>
+        <v>292</v>
+      </c>
+      <c r="M7" s="23" t="s">
+        <v>324</v>
+      </c>
       <c r="O7" s="20" t="s">
         <v>286</v>
       </c>
       <c r="P7" s="20" t="s">
-        <v>305</v>
-      </c>
-      <c r="Q7" s="20"/>
+        <v>304</v>
+      </c>
+      <c r="Q7" s="20" t="s">
+        <v>330</v>
+      </c>
     </row>
     <row r="8" spans="1:17">
       <c r="A8" t="s">
@@ -5134,7 +5277,7 @@
         <v>194</v>
       </c>
       <c r="D8" s="20" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E8">
         <v>80</v>
@@ -5152,21 +5295,23 @@
         <v>211</v>
       </c>
       <c r="K8" s="20" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="L8" s="20" t="s">
-        <v>294</v>
-      </c>
-      <c r="M8" s="25" t="s">
-        <v>299</v>
+        <v>293</v>
+      </c>
+      <c r="M8" s="23" t="s">
+        <v>298</v>
       </c>
       <c r="O8" s="20" t="s">
         <v>286</v>
       </c>
       <c r="P8" s="20" t="s">
-        <v>306</v>
-      </c>
-      <c r="Q8" s="20"/>
+        <v>305</v>
+      </c>
+      <c r="Q8" s="20" t="s">
+        <v>331</v>
+      </c>
     </row>
     <row r="9" spans="1:17">
       <c r="A9" t="s">
@@ -5179,7 +5324,7 @@
         <v>196</v>
       </c>
       <c r="D9" s="20" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E9">
         <v>20</v>
@@ -5187,20 +5332,33 @@
       <c r="F9">
         <v>60</v>
       </c>
+      <c r="G9">
+        <v>74</v>
+      </c>
+      <c r="H9">
+        <v>120</v>
+      </c>
+      <c r="I9" s="20" t="s">
+        <v>211</v>
+      </c>
       <c r="K9" s="20" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="L9" s="20" t="s">
-        <v>295</v>
-      </c>
-      <c r="M9" s="25"/>
+        <v>294</v>
+      </c>
+      <c r="M9" s="23" t="s">
+        <v>325</v>
+      </c>
       <c r="O9" s="20" t="s">
         <v>286</v>
       </c>
       <c r="P9" s="20" t="s">
-        <v>307</v>
-      </c>
-      <c r="Q9" s="20"/>
+        <v>306</v>
+      </c>
+      <c r="Q9" s="20" t="s">
+        <v>332</v>
+      </c>
     </row>
     <row r="10" spans="1:17">
       <c r="A10" t="s">
@@ -5213,7 +5371,7 @@
         <v>193</v>
       </c>
       <c r="D10" s="20" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E10">
         <v>15</v>
@@ -5221,20 +5379,33 @@
       <c r="F10">
         <v>120</v>
       </c>
+      <c r="G10">
+        <v>55</v>
+      </c>
+      <c r="H10">
+        <v>40</v>
+      </c>
+      <c r="I10" s="20" t="s">
+        <v>211</v>
+      </c>
       <c r="K10" s="20" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="L10" s="20" t="s">
-        <v>296</v>
-      </c>
-      <c r="M10" s="25"/>
+        <v>295</v>
+      </c>
+      <c r="M10" s="23" t="s">
+        <v>339</v>
+      </c>
       <c r="O10" s="20" t="s">
         <v>286</v>
       </c>
       <c r="P10" s="20" t="s">
-        <v>308</v>
-      </c>
-      <c r="Q10" s="20"/>
+        <v>307</v>
+      </c>
+      <c r="Q10" s="20" t="s">
+        <v>341</v>
+      </c>
     </row>
     <row r="11" spans="1:17">
       <c r="A11" t="s">
@@ -5247,7 +5418,7 @@
         <v>193</v>
       </c>
       <c r="D11" s="20" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E11">
         <v>15</v>
@@ -5255,20 +5426,43 @@
       <c r="F11">
         <v>120</v>
       </c>
+      <c r="G11">
+        <v>93</v>
+      </c>
+      <c r="H11">
+        <v>60</v>
+      </c>
+      <c r="I11" s="20" t="s">
+        <v>211</v>
+      </c>
       <c r="K11" s="20" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="L11" s="20" t="s">
-        <v>297</v>
-      </c>
-      <c r="M11" s="25"/>
+        <v>296</v>
+      </c>
+      <c r="M11" s="23" t="s">
+        <v>338</v>
+      </c>
       <c r="O11" s="20" t="s">
         <v>286</v>
       </c>
       <c r="P11" s="20" t="s">
-        <v>309</v>
-      </c>
-      <c r="Q11" s="20"/>
+        <v>308</v>
+      </c>
+      <c r="Q11" s="20" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="G12">
+        <f>SUM(G2:G11)</f>
+        <v>788</v>
+      </c>
+      <c r="H12">
+        <f>SUM(H2:H11)</f>
+        <v>630</v>
+      </c>
     </row>
     <row r="14" spans="1:17" ht="14">
       <c r="B14" s="5" t="s">
@@ -5277,7 +5471,7 @@
     </row>
     <row r="15" spans="1:17" ht="14">
       <c r="B15" s="21" t="s">
-        <v>214</v>
+        <v>333</v>
       </c>
     </row>
     <row r="16" spans="1:17" ht="14">
@@ -5287,12 +5481,12 @@
     </row>
     <row r="17" spans="2:2" ht="14">
       <c r="B17" s="21" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2" ht="14">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" ht="56">
       <c r="B18" s="21" t="s">
-        <v>216</v>
+        <v>334</v>
       </c>
     </row>
     <row r="19" spans="2:2">
@@ -5301,6 +5495,16 @@
     <row r="20" spans="2:2" ht="14">
       <c r="B20" s="5" t="s">
         <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" ht="28">
+      <c r="B21" s="1" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" ht="28">
+      <c r="B22" s="1" t="s">
+        <v>337</v>
       </c>
     </row>
   </sheetData>
@@ -5314,7 +5518,7 @@
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -5361,6 +5565,9 @@
       <c r="D2" s="18" t="s">
         <v>207</v>
       </c>
+      <c r="E2">
+        <v>30</v>
+      </c>
     </row>
     <row r="3" spans="1:9" ht="14">
       <c r="A3" t="s">
@@ -5375,6 +5582,9 @@
       <c r="D3" s="18" t="s">
         <v>207</v>
       </c>
+      <c r="E3">
+        <v>30</v>
+      </c>
     </row>
     <row r="4" spans="1:9" ht="14">
       <c r="A4" t="s">
@@ -5389,6 +5599,9 @@
       <c r="D4" s="18" t="s">
         <v>207</v>
       </c>
+      <c r="E4">
+        <v>40</v>
+      </c>
     </row>
     <row r="5" spans="1:9" ht="14">
       <c r="A5" t="s">
@@ -5403,6 +5616,9 @@
       <c r="D5" s="18" t="s">
         <v>207</v>
       </c>
+      <c r="E5">
+        <v>40</v>
+      </c>
     </row>
     <row r="6" spans="1:9" ht="14">
       <c r="A6" t="s">
@@ -5417,6 +5633,9 @@
       <c r="D6" s="18" t="s">
         <v>207</v>
       </c>
+      <c r="E6">
+        <v>50</v>
+      </c>
     </row>
     <row r="7" spans="1:9" ht="14">
       <c r="A7" t="s">
@@ -5431,6 +5650,9 @@
       <c r="D7" s="18" t="s">
         <v>207</v>
       </c>
+      <c r="E7">
+        <v>50</v>
+      </c>
     </row>
     <row r="8" spans="1:9" ht="14">
       <c r="A8" t="s">
@@ -5445,6 +5667,9 @@
       <c r="D8" s="18" t="s">
         <v>207</v>
       </c>
+      <c r="E8">
+        <v>40</v>
+      </c>
     </row>
     <row r="9" spans="1:9" ht="14">
       <c r="A9" t="s">
@@ -5459,6 +5684,9 @@
       <c r="D9" s="18" t="s">
         <v>207</v>
       </c>
+      <c r="E9">
+        <v>40</v>
+      </c>
     </row>
     <row r="10" spans="1:9" ht="14">
       <c r="A10" t="s">
@@ -5473,6 +5701,9 @@
       <c r="D10" s="18" t="s">
         <v>207</v>
       </c>
+      <c r="E10">
+        <v>20</v>
+      </c>
     </row>
     <row r="11" spans="1:9" ht="14">
       <c r="A11" t="s">
@@ -5486,6 +5717,9 @@
       </c>
       <c r="D11" s="18" t="s">
         <v>207</v>
+      </c>
+      <c r="E11">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -5498,7 +5732,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:C43"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView topLeftCell="A27" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="A34" sqref="A34:B34"/>
     </sheetView>
   </sheetViews>
